--- a/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 1-.xlsx
+++ b/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 1-.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>BA7 replicate 1</t>
   </si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>GMI1000 replicate 3</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 2</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 1</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 3</t>
   </si>
   <si>
     <t>K60 replicate 1</t>
@@ -759,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL97"/>
+  <dimension ref="A1:AI97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,7 +758,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,13 +805,13 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
@@ -870,135 +861,117 @@
       <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B3" t="n">
         <v>113.5</v>
@@ -1037,84 +1010,75 @@
         <v>19.75</v>
       </c>
       <c r="N3" t="n">
-        <v>225.25</v>
+        <v>0.125</v>
       </c>
       <c r="O3" t="n">
-        <v>0.25</v>
+        <v>17.75</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.125</v>
+        <v>486.375</v>
       </c>
       <c r="R3" t="n">
-        <v>17.75</v>
+        <v>106.5</v>
       </c>
       <c r="S3" t="n">
-        <v>15.25</v>
+        <v>89.375</v>
       </c>
       <c r="T3" t="n">
-        <v>486.375</v>
+        <v>2.125</v>
       </c>
       <c r="U3" t="n">
-        <v>106.5</v>
+        <v>34.5</v>
       </c>
       <c r="V3" t="n">
-        <v>89.375</v>
+        <v>131</v>
       </c>
       <c r="W3" t="n">
-        <v>2.125</v>
+        <v>102.75</v>
       </c>
       <c r="X3" t="n">
-        <v>34.5</v>
+        <v>201.125</v>
       </c>
       <c r="Y3" t="n">
-        <v>131</v>
+        <v>228.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>102.75</v>
+        <v>1254.375</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.125</v>
+        <v>0.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.5</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1254.375</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.75</v>
+        <v>20.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="AG3" t="n">
-        <v>20.5</v>
+        <v>93.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>10.5</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>93.375</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>77</v>
-      </c>
-      <c r="AL3" t="n">
         <v>543.375</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>2912.25</v>
@@ -1153,7 +1117,7 @@
         <v>732.25</v>
       </c>
       <c r="N4" t="n">
-        <v>14.25</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1162,43 +1126,43 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>41.25</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="U4" t="n">
-        <v>41.25</v>
+        <v>3463.875</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>2733.875</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>2995.625</v>
       </c>
       <c r="X4" t="n">
-        <v>3463.875</v>
+        <v>773.125</v>
       </c>
       <c r="Y4" t="n">
-        <v>2733.875</v>
+        <v>408.125</v>
       </c>
       <c r="Z4" t="n">
-        <v>2995.625</v>
+        <v>434.75</v>
       </c>
       <c r="AA4" t="n">
-        <v>773.125</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>408.125</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>434.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1207,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -1218,19 +1182,10 @@
       <c r="AI4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>8889.75</v>
@@ -1269,84 +1224,75 @@
         <v>4245.875</v>
       </c>
       <c r="N5" t="n">
-        <v>13143.25</v>
+        <v>14839.5</v>
       </c>
       <c r="O5" t="n">
-        <v>14955</v>
+        <v>13896.75</v>
       </c>
       <c r="P5" t="n">
-        <v>14568</v>
+        <v>15094.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>14839.5</v>
+        <v>14614.5</v>
       </c>
       <c r="R5" t="n">
-        <v>13896.75</v>
+        <v>7503.875</v>
       </c>
       <c r="S5" t="n">
-        <v>15094.5</v>
+        <v>5781.375</v>
       </c>
       <c r="T5" t="n">
-        <v>14614.5</v>
+        <v>6200.75</v>
       </c>
       <c r="U5" t="n">
-        <v>7503.875</v>
+        <v>5582.875</v>
       </c>
       <c r="V5" t="n">
-        <v>5781.375</v>
+        <v>5086.125</v>
       </c>
       <c r="W5" t="n">
-        <v>6200.75</v>
+        <v>4804.125</v>
       </c>
       <c r="X5" t="n">
-        <v>5582.875</v>
+        <v>9505.375</v>
       </c>
       <c r="Y5" t="n">
-        <v>5086.125</v>
+        <v>9450.375</v>
       </c>
       <c r="Z5" t="n">
-        <v>4804.125</v>
+        <v>9131.625</v>
       </c>
       <c r="AA5" t="n">
-        <v>9505.375</v>
+        <v>13793</v>
       </c>
       <c r="AB5" t="n">
-        <v>9450.375</v>
+        <v>14635.25</v>
       </c>
       <c r="AC5" t="n">
-        <v>9131.625</v>
+        <v>13444.125</v>
       </c>
       <c r="AD5" t="n">
-        <v>13793</v>
+        <v>12592.125</v>
       </c>
       <c r="AE5" t="n">
-        <v>14635.25</v>
+        <v>11080</v>
       </c>
       <c r="AF5" t="n">
-        <v>13444.125</v>
+        <v>12491.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12592.125</v>
+        <v>11657.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>11080</v>
+        <v>11707.375</v>
       </c>
       <c r="AI5" t="n">
-        <v>12491.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11657.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11707.375</v>
-      </c>
-      <c r="AL5" t="n">
         <v>11769.5</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
         <v>7627.375</v>
@@ -1385,84 +1331,75 @@
         <v>3735.625</v>
       </c>
       <c r="N6" t="n">
-        <v>15104.25</v>
+        <v>13330.125</v>
       </c>
       <c r="O6" t="n">
-        <v>15296.375</v>
+        <v>13277.625</v>
       </c>
       <c r="P6" t="n">
-        <v>15543.5</v>
+        <v>12024.125</v>
       </c>
       <c r="Q6" t="n">
-        <v>13330.125</v>
+        <v>13131.875</v>
       </c>
       <c r="R6" t="n">
-        <v>13277.625</v>
+        <v>6424.875</v>
       </c>
       <c r="S6" t="n">
-        <v>12024.125</v>
+        <v>6609.125</v>
       </c>
       <c r="T6" t="n">
-        <v>13131.875</v>
+        <v>10361.75</v>
       </c>
       <c r="U6" t="n">
-        <v>6424.875</v>
+        <v>3865</v>
       </c>
       <c r="V6" t="n">
-        <v>6609.125</v>
+        <v>3734.125</v>
       </c>
       <c r="W6" t="n">
-        <v>10361.75</v>
+        <v>3431.25</v>
       </c>
       <c r="X6" t="n">
-        <v>3865</v>
+        <v>5935</v>
       </c>
       <c r="Y6" t="n">
-        <v>3734.125</v>
+        <v>2732.375</v>
       </c>
       <c r="Z6" t="n">
-        <v>3431.25</v>
+        <v>5498.875</v>
       </c>
       <c r="AA6" t="n">
-        <v>5935</v>
+        <v>12939</v>
       </c>
       <c r="AB6" t="n">
-        <v>2732.375</v>
+        <v>13793.25</v>
       </c>
       <c r="AC6" t="n">
-        <v>5498.875</v>
+        <v>12891.875</v>
       </c>
       <c r="AD6" t="n">
-        <v>12939</v>
+        <v>9009.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13793.25</v>
+        <v>9069.625</v>
       </c>
       <c r="AF6" t="n">
-        <v>12891.875</v>
+        <v>10408</v>
       </c>
       <c r="AG6" t="n">
-        <v>9009.5</v>
+        <v>11634.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>9069.625</v>
+        <v>11499.375</v>
       </c>
       <c r="AI6" t="n">
-        <v>10408</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11634.625</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>11499.375</v>
-      </c>
-      <c r="AL6" t="n">
         <v>11648.5</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="n">
         <v>7.5</v>
@@ -1501,19 +1438,19 @@
         <v>2902.375</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1522,63 +1459,54 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.25</v>
+        <v>3584.375</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2993.5</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3599.5</v>
       </c>
       <c r="X7" t="n">
-        <v>3584.375</v>
+        <v>5595.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>2993.5</v>
+        <v>3035.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>3599.5</v>
+        <v>3893.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>5595.75</v>
+        <v>14489.375</v>
       </c>
       <c r="AB7" t="n">
-        <v>3035.25</v>
+        <v>15630.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>3893.25</v>
+        <v>14429</v>
       </c>
       <c r="AD7" t="n">
-        <v>14489.375</v>
+        <v>1.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15630.5</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>14429</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="n">
         <v>9458</v>
@@ -1617,84 +1545,75 @@
         <v>9319.625</v>
       </c>
       <c r="N8" t="n">
-        <v>14910.625</v>
+        <v>15614.875</v>
       </c>
       <c r="O8" t="n">
-        <v>15920.5</v>
+        <v>14511.625</v>
       </c>
       <c r="P8" t="n">
-        <v>15985.875</v>
+        <v>16097.875</v>
       </c>
       <c r="Q8" t="n">
-        <v>15614.875</v>
+        <v>15180</v>
       </c>
       <c r="R8" t="n">
-        <v>14511.625</v>
+        <v>10186.125</v>
       </c>
       <c r="S8" t="n">
-        <v>16097.875</v>
+        <v>9078.625</v>
       </c>
       <c r="T8" t="n">
-        <v>15180</v>
+        <v>10372.75</v>
       </c>
       <c r="U8" t="n">
-        <v>10186.125</v>
+        <v>7965.75</v>
       </c>
       <c r="V8" t="n">
-        <v>9078.625</v>
+        <v>7064</v>
       </c>
       <c r="W8" t="n">
-        <v>10372.75</v>
+        <v>7545</v>
       </c>
       <c r="X8" t="n">
-        <v>7965.75</v>
+        <v>12883.375</v>
       </c>
       <c r="Y8" t="n">
-        <v>7064</v>
+        <v>10150.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>7545</v>
+        <v>11944.125</v>
       </c>
       <c r="AA8" t="n">
-        <v>12883.375</v>
+        <v>13870</v>
       </c>
       <c r="AB8" t="n">
-        <v>10150.75</v>
+        <v>15069.875</v>
       </c>
       <c r="AC8" t="n">
-        <v>11944.125</v>
+        <v>14258.875</v>
       </c>
       <c r="AD8" t="n">
-        <v>13870</v>
+        <v>13419.375</v>
       </c>
       <c r="AE8" t="n">
-        <v>15069.875</v>
+        <v>12602.375</v>
       </c>
       <c r="AF8" t="n">
-        <v>14258.875</v>
+        <v>13419.375</v>
       </c>
       <c r="AG8" t="n">
-        <v>13419.375</v>
+        <v>12443.375</v>
       </c>
       <c r="AH8" t="n">
-        <v>12602.375</v>
+        <v>11966.375</v>
       </c>
       <c r="AI8" t="n">
-        <v>13419.375</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12443.375</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>11966.375</v>
-      </c>
-      <c r="AL8" t="n">
         <v>12646.625</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
         <v>8179</v>
@@ -1733,84 +1652,75 @@
         <v>17.75</v>
       </c>
       <c r="N9" t="n">
-        <v>7563</v>
+        <v>13807.375</v>
       </c>
       <c r="O9" t="n">
-        <v>7520.75</v>
+        <v>12692.125</v>
       </c>
       <c r="P9" t="n">
-        <v>9532.5</v>
+        <v>12468.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>13807.375</v>
+        <v>11578</v>
       </c>
       <c r="R9" t="n">
-        <v>12692.125</v>
+        <v>7268.5</v>
       </c>
       <c r="S9" t="n">
-        <v>12468.25</v>
+        <v>6443.5</v>
       </c>
       <c r="T9" t="n">
-        <v>11578</v>
+        <v>6636.25</v>
       </c>
       <c r="U9" t="n">
-        <v>7268.5</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6443.5</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6636.25</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>6.625</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>128.375</v>
       </c>
       <c r="AA9" t="n">
-        <v>232</v>
+        <v>10782.375</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.625</v>
+        <v>11775.25</v>
       </c>
       <c r="AC9" t="n">
-        <v>128.375</v>
+        <v>10747.875</v>
       </c>
       <c r="AD9" t="n">
-        <v>10782.375</v>
+        <v>7088.375</v>
       </c>
       <c r="AE9" t="n">
-        <v>11775.25</v>
+        <v>6796.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>10747.875</v>
+        <v>8800</v>
       </c>
       <c r="AG9" t="n">
-        <v>7088.375</v>
+        <v>9627.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>6796.5</v>
+        <v>8864.125</v>
       </c>
       <c r="AI9" t="n">
-        <v>8800</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9627.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>8864.125</v>
-      </c>
-      <c r="AL9" t="n">
         <v>9856</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
         <v>3784.75</v>
@@ -1849,84 +1759,75 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3146.125</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3842.375</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>3908.625</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>12.75</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>50.5</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="W10" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>141.375</v>
       </c>
       <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>7.75</v>
       </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
       <c r="AA10" t="n">
-        <v>141.375</v>
+        <v>7251.375</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>4172.875</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.75</v>
+        <v>6341</v>
       </c>
       <c r="AD10" t="n">
-        <v>7251.375</v>
+        <v>698.75</v>
       </c>
       <c r="AE10" t="n">
-        <v>4172.875</v>
+        <v>715.125</v>
       </c>
       <c r="AF10" t="n">
-        <v>6341</v>
+        <v>660.75</v>
       </c>
       <c r="AG10" t="n">
-        <v>698.75</v>
+        <v>525.625</v>
       </c>
       <c r="AH10" t="n">
-        <v>715.125</v>
+        <v>440.25</v>
       </c>
       <c r="AI10" t="n">
-        <v>660.75</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>525.625</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>440.25</v>
-      </c>
-      <c r="AL10" t="n">
         <v>2321.125</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" t="n">
         <v>9190</v>
@@ -1965,84 +1866,75 @@
         <v>10120</v>
       </c>
       <c r="N11" t="n">
-        <v>170.25</v>
+        <v>0.75</v>
       </c>
       <c r="O11" t="n">
-        <v>2985.25</v>
+        <v>266.875</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>51.125</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.75</v>
+        <v>794.25</v>
       </c>
       <c r="R11" t="n">
-        <v>266.875</v>
+        <v>5840.5</v>
       </c>
       <c r="S11" t="n">
-        <v>51.125</v>
+        <v>5529.875</v>
       </c>
       <c r="T11" t="n">
-        <v>794.25</v>
+        <v>5547.625</v>
       </c>
       <c r="U11" t="n">
-        <v>5840.5</v>
+        <v>6074.625</v>
       </c>
       <c r="V11" t="n">
-        <v>5529.875</v>
+        <v>6461.125</v>
       </c>
       <c r="W11" t="n">
-        <v>5547.625</v>
+        <v>6034.125</v>
       </c>
       <c r="X11" t="n">
-        <v>6074.625</v>
+        <v>9914.375</v>
       </c>
       <c r="Y11" t="n">
-        <v>6461.125</v>
+        <v>9256.375</v>
       </c>
       <c r="Z11" t="n">
-        <v>6034.125</v>
+        <v>9053.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>9914.375</v>
+        <v>8817</v>
       </c>
       <c r="AB11" t="n">
-        <v>9256.375</v>
+        <v>8457.625</v>
       </c>
       <c r="AC11" t="n">
-        <v>9053.75</v>
+        <v>8677.875</v>
       </c>
       <c r="AD11" t="n">
-        <v>8817</v>
+        <v>9122.125</v>
       </c>
       <c r="AE11" t="n">
-        <v>8457.625</v>
+        <v>9554.375</v>
       </c>
       <c r="AF11" t="n">
-        <v>8677.875</v>
+        <v>9253.375</v>
       </c>
       <c r="AG11" t="n">
-        <v>9122.125</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>9554.375</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>9253.375</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" t="n">
         <v>207.875</v>
@@ -2081,84 +1973,75 @@
         <v>79.875</v>
       </c>
       <c r="N12" t="n">
-        <v>127.5</v>
+        <v>2.75</v>
       </c>
       <c r="O12" t="n">
-        <v>4.5</v>
+        <v>308.75</v>
       </c>
       <c r="P12" t="n">
-        <v>10.25</v>
+        <v>85.125</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>560.375</v>
       </c>
       <c r="R12" t="n">
-        <v>308.75</v>
+        <v>183.875</v>
       </c>
       <c r="S12" t="n">
-        <v>85.125</v>
+        <v>2.25</v>
       </c>
       <c r="T12" t="n">
-        <v>560.375</v>
+        <v>180.625</v>
       </c>
       <c r="U12" t="n">
-        <v>183.875</v>
+        <v>0.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>198.25</v>
       </c>
       <c r="W12" t="n">
-        <v>180.625</v>
+        <v>0.25</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5</v>
+        <v>550.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>198.25</v>
+        <v>66.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.25</v>
+        <v>872.875</v>
       </c>
       <c r="AA12" t="n">
-        <v>550.75</v>
+        <v>309.75</v>
       </c>
       <c r="AB12" t="n">
-        <v>66.75</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>872.875</v>
+        <v>343.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>309.75</v>
+        <v>308</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
-        <v>343.25</v>
+        <v>324.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>308</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>5.375</v>
       </c>
       <c r="AI12" t="n">
-        <v>324.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>5.375</v>
-      </c>
-      <c r="AL12" t="n">
         <v>767.875</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" t="n">
         <v>1047.75</v>
@@ -2197,84 +2080,75 @@
         <v>7196.125</v>
       </c>
       <c r="N13" t="n">
-        <v>310.75</v>
+        <v>101.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1722.125</v>
+        <v>497.25</v>
       </c>
       <c r="P13" t="n">
-        <v>97.125</v>
+        <v>696.375</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.75</v>
+        <v>881.25</v>
       </c>
       <c r="R13" t="n">
-        <v>497.25</v>
+        <v>238</v>
       </c>
       <c r="S13" t="n">
-        <v>696.375</v>
+        <v>507.625</v>
       </c>
       <c r="T13" t="n">
-        <v>881.25</v>
+        <v>358</v>
       </c>
       <c r="U13" t="n">
-        <v>238</v>
+        <v>330.5</v>
       </c>
       <c r="V13" t="n">
-        <v>507.625</v>
+        <v>524</v>
       </c>
       <c r="W13" t="n">
-        <v>358</v>
+        <v>428.375</v>
       </c>
       <c r="X13" t="n">
-        <v>330.5</v>
+        <v>12224.625</v>
       </c>
       <c r="Y13" t="n">
-        <v>524</v>
+        <v>11149.125</v>
       </c>
       <c r="Z13" t="n">
-        <v>428.375</v>
+        <v>11362.125</v>
       </c>
       <c r="AA13" t="n">
-        <v>12224.625</v>
+        <v>822.375</v>
       </c>
       <c r="AB13" t="n">
-        <v>11149.125</v>
+        <v>3.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>11362.125</v>
+        <v>759.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>822.375</v>
+        <v>489.125</v>
       </c>
       <c r="AE13" t="n">
-        <v>3.5</v>
+        <v>476.375</v>
       </c>
       <c r="AF13" t="n">
-        <v>759.75</v>
+        <v>342.75</v>
       </c>
       <c r="AG13" t="n">
-        <v>489.125</v>
+        <v>522.125</v>
       </c>
       <c r="AH13" t="n">
-        <v>476.375</v>
+        <v>194.625</v>
       </c>
       <c r="AI13" t="n">
-        <v>342.75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>522.125</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>194.625</v>
-      </c>
-      <c r="AL13" t="n">
         <v>836</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="n">
         <v>514.625</v>
@@ -2313,84 +2187,75 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>109.375</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>190.75</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>191.5</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>5.125</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.125</v>
+        <v>6.75</v>
       </c>
       <c r="U14" t="n">
-        <v>11.375</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.75</v>
+        <v>0.5</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>74.375</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>74.375</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ14" t="n">
         <v>1</v>
       </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" t="n">
         <v>1.25</v>
@@ -2438,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2447,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2459,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>6298.375</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>4715.625</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>5372.25</v>
       </c>
       <c r="AA15" t="n">
-        <v>6298.375</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>4715.625</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>5372.25</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2494,19 +2359,10 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" t="n">
         <v>3389.5</v>
@@ -2545,84 +2401,75 @@
         <v>1989.625</v>
       </c>
       <c r="N16" t="n">
-        <v>10146.25</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>11760.75</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11919.875</v>
+        <v>11.875</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2290</v>
       </c>
       <c r="S16" t="n">
-        <v>11.875</v>
+        <v>1635.375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1432.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2290</v>
+        <v>336</v>
       </c>
       <c r="V16" t="n">
-        <v>1635.375</v>
+        <v>70.125</v>
       </c>
       <c r="W16" t="n">
-        <v>1432.75</v>
+        <v>420.375</v>
       </c>
       <c r="X16" t="n">
-        <v>336</v>
+        <v>5340.375</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.125</v>
+        <v>4503.125</v>
       </c>
       <c r="Z16" t="n">
-        <v>420.375</v>
+        <v>5311.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>5340.375</v>
+        <v>6788.125</v>
       </c>
       <c r="AB16" t="n">
-        <v>4503.125</v>
+        <v>8581.25</v>
       </c>
       <c r="AC16" t="n">
-        <v>5311.25</v>
+        <v>7501.875</v>
       </c>
       <c r="AD16" t="n">
-        <v>6788.125</v>
+        <v>287.75</v>
       </c>
       <c r="AE16" t="n">
-        <v>8581.25</v>
+        <v>47.75</v>
       </c>
       <c r="AF16" t="n">
-        <v>7501.875</v>
+        <v>254.25</v>
       </c>
       <c r="AG16" t="n">
-        <v>287.75</v>
+        <v>7300.875</v>
       </c>
       <c r="AH16" t="n">
-        <v>47.75</v>
+        <v>6539</v>
       </c>
       <c r="AI16" t="n">
-        <v>254.25</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>7300.875</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>6539</v>
-      </c>
-      <c r="AL16" t="n">
         <v>7169</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" t="n">
         <v>24.25</v>
@@ -2673,43 +2520,43 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U17" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>12.375</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>12.375</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2718,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -2726,19 +2573,10 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" t="n">
         <v>9345.75</v>
@@ -2777,84 +2615,75 @@
         <v>12457.75</v>
       </c>
       <c r="N18" t="n">
-        <v>14593.625</v>
+        <v>15108.875</v>
       </c>
       <c r="O18" t="n">
-        <v>16073.5</v>
+        <v>14597.5</v>
       </c>
       <c r="P18" t="n">
-        <v>15822.5</v>
+        <v>16051</v>
       </c>
       <c r="Q18" t="n">
-        <v>15108.875</v>
+        <v>15475.625</v>
       </c>
       <c r="R18" t="n">
-        <v>14597.5</v>
+        <v>9935.5</v>
       </c>
       <c r="S18" t="n">
-        <v>16051</v>
+        <v>9982.75</v>
       </c>
       <c r="T18" t="n">
-        <v>15475.625</v>
+        <v>10711.875</v>
       </c>
       <c r="U18" t="n">
-        <v>9935.5</v>
+        <v>8061.25</v>
       </c>
       <c r="V18" t="n">
-        <v>9982.75</v>
+        <v>7732.5</v>
       </c>
       <c r="W18" t="n">
-        <v>10711.875</v>
+        <v>8150.875</v>
       </c>
       <c r="X18" t="n">
-        <v>8061.25</v>
+        <v>13931.625</v>
       </c>
       <c r="Y18" t="n">
-        <v>7732.5</v>
+        <v>13241.125</v>
       </c>
       <c r="Z18" t="n">
-        <v>8150.875</v>
+        <v>14216.625</v>
       </c>
       <c r="AA18" t="n">
-        <v>13931.625</v>
+        <v>14425.125</v>
       </c>
       <c r="AB18" t="n">
-        <v>13241.125</v>
+        <v>15503.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>14216.625</v>
+        <v>14598.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>14425.125</v>
+        <v>14845.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15503.5</v>
+        <v>14022</v>
       </c>
       <c r="AF18" t="n">
-        <v>14598.5</v>
+        <v>14564.125</v>
       </c>
       <c r="AG18" t="n">
-        <v>14845.5</v>
+        <v>11769.875</v>
       </c>
       <c r="AH18" t="n">
-        <v>14022</v>
+        <v>11799.625</v>
       </c>
       <c r="AI18" t="n">
-        <v>14564.125</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11769.875</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>11799.625</v>
-      </c>
-      <c r="AL18" t="n">
         <v>12197.25</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" t="n">
         <v>4991.375</v>
@@ -2893,84 +2722,75 @@
         <v>2477</v>
       </c>
       <c r="N19" t="n">
-        <v>11269.125</v>
+        <v>0.25</v>
       </c>
       <c r="O19" t="n">
-        <v>13019.125</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>12022.375</v>
+        <v>8.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.25</v>
+        <v>19.5</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4494.625</v>
       </c>
       <c r="S19" t="n">
-        <v>8.5</v>
+        <v>4432.25</v>
       </c>
       <c r="T19" t="n">
-        <v>19.5</v>
+        <v>4379.5</v>
       </c>
       <c r="U19" t="n">
-        <v>4494.625</v>
+        <v>87.125</v>
       </c>
       <c r="V19" t="n">
-        <v>4432.25</v>
+        <v>98.5</v>
       </c>
       <c r="W19" t="n">
-        <v>4379.5</v>
+        <v>140.625</v>
       </c>
       <c r="X19" t="n">
-        <v>87.125</v>
+        <v>1881.375</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.5</v>
+        <v>610.75</v>
       </c>
       <c r="Z19" t="n">
-        <v>140.625</v>
+        <v>1926.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1881.375</v>
+        <v>11079.625</v>
       </c>
       <c r="AB19" t="n">
-        <v>610.75</v>
+        <v>12207.625</v>
       </c>
       <c r="AC19" t="n">
-        <v>1926.5</v>
+        <v>11749.75</v>
       </c>
       <c r="AD19" t="n">
-        <v>11079.625</v>
+        <v>1224.625</v>
       </c>
       <c r="AE19" t="n">
-        <v>12207.625</v>
+        <v>1329</v>
       </c>
       <c r="AF19" t="n">
-        <v>11749.75</v>
+        <v>1256.25</v>
       </c>
       <c r="AG19" t="n">
-        <v>1224.625</v>
+        <v>6175.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>1329</v>
+        <v>5576.75</v>
       </c>
       <c r="AI19" t="n">
-        <v>1256.25</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>6175.25</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>5576.75</v>
-      </c>
-      <c r="AL19" t="n">
         <v>6103.125</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -3039,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.875</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -3048,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>4.875</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -3074,19 +2894,10 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="n">
         <v>343.125</v>
@@ -3134,75 +2945,66 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>223.375</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>26.125</v>
+      </c>
+      <c r="U21" t="n">
+        <v>18.375</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>0.5</v>
       </c>
-      <c r="U21" t="n">
-        <v>223.375</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>26.125</v>
-      </c>
       <c r="X21" t="n">
-        <v>18.375</v>
+        <v>337</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.5</v>
+        <v>1834.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.5</v>
+        <v>737.875</v>
       </c>
       <c r="AC21" t="n">
-        <v>1834.25</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>127.875</v>
       </c>
       <c r="AE21" t="n">
-        <v>737.875</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>127.875</v>
+        <v>46.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="AI21" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>9.875</v>
-      </c>
-      <c r="AL21" t="n">
         <v>124.375</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="n">
         <v>122.875</v>
@@ -3241,84 +3043,75 @@
         <v>2477.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2405.25</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>3453.75</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2823.875</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>38.25</v>
       </c>
       <c r="T22" t="n">
-        <v>7.25</v>
+        <v>1.25</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>597.625</v>
       </c>
       <c r="V22" t="n">
-        <v>38.25</v>
+        <v>233.375</v>
       </c>
       <c r="W22" t="n">
-        <v>1.25</v>
+        <v>510.75</v>
       </c>
       <c r="X22" t="n">
-        <v>597.625</v>
+        <v>91.125</v>
       </c>
       <c r="Y22" t="n">
-        <v>233.375</v>
+        <v>83.125</v>
       </c>
       <c r="Z22" t="n">
-        <v>510.75</v>
+        <v>1860.125</v>
       </c>
       <c r="AA22" t="n">
-        <v>91.125</v>
+        <v>10057.125</v>
       </c>
       <c r="AB22" t="n">
-        <v>83.125</v>
+        <v>11612.125</v>
       </c>
       <c r="AC22" t="n">
-        <v>1860.125</v>
+        <v>10439.125</v>
       </c>
       <c r="AD22" t="n">
-        <v>10057.125</v>
+        <v>42.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>11612.125</v>
+        <v>0.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>10439.125</v>
+        <v>33</v>
       </c>
       <c r="AG22" t="n">
-        <v>42.5</v>
+        <v>414</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.25</v>
+        <v>264.625</v>
       </c>
       <c r="AI22" t="n">
-        <v>33</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>414</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>264.625</v>
-      </c>
-      <c r="AL22" t="n">
         <v>577</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" t="n">
         <v>44.25</v>
@@ -3357,84 +3150,75 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>7755.625</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>6786.625</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>8007.375</v>
       </c>
       <c r="Q23" t="n">
-        <v>7755.625</v>
+        <v>8189.5</v>
       </c>
       <c r="R23" t="n">
-        <v>6786.625</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>8007.375</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>8189.5</v>
+        <v>0.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>697.625</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="AE23" t="n">
-        <v>697.625</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="n">
         <v>75.625</v>
@@ -3473,84 +3257,75 @@
         <v>1442.75</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O24" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.75</v>
+        <v>20.375</v>
       </c>
       <c r="Q24" t="n">
+        <v>9.375</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>6497.625</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4398.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>6755.875</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>102.875</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>56.125</v>
+      </c>
+      <c r="AG24" t="n">
         <v>1.5</v>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>20.375</v>
-      </c>
-      <c r="T24" t="n">
-        <v>9.375</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6497.625</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>4398.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>6755.875</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>102.875</v>
-      </c>
       <c r="AH24" t="n">
         <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>56.125</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" t="n">
         <v>13380</v>
@@ -3589,84 +3364,75 @@
         <v>10986.875</v>
       </c>
       <c r="N25" t="n">
-        <v>15367</v>
+        <v>14907.5</v>
       </c>
       <c r="O25" t="n">
-        <v>16509.375</v>
+        <v>13901.5</v>
       </c>
       <c r="P25" t="n">
-        <v>16177.625</v>
+        <v>15913.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>14907.5</v>
+        <v>14839.125</v>
       </c>
       <c r="R25" t="n">
-        <v>13901.5</v>
+        <v>13165.125</v>
       </c>
       <c r="S25" t="n">
-        <v>15913.5</v>
+        <v>11706.125</v>
       </c>
       <c r="T25" t="n">
-        <v>14839.125</v>
+        <v>12873.25</v>
       </c>
       <c r="U25" t="n">
-        <v>13165.125</v>
+        <v>8835.25</v>
       </c>
       <c r="V25" t="n">
-        <v>11706.125</v>
+        <v>8529.375</v>
       </c>
       <c r="W25" t="n">
-        <v>12873.25</v>
+        <v>9287.125</v>
       </c>
       <c r="X25" t="n">
-        <v>8835.25</v>
+        <v>13750.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>8529.375</v>
+        <v>12582.875</v>
       </c>
       <c r="Z25" t="n">
-        <v>9287.125</v>
+        <v>13386.375</v>
       </c>
       <c r="AA25" t="n">
-        <v>13750.5</v>
+        <v>13550.875</v>
       </c>
       <c r="AB25" t="n">
-        <v>12582.875</v>
+        <v>15354</v>
       </c>
       <c r="AC25" t="n">
-        <v>13386.375</v>
+        <v>13865.25</v>
       </c>
       <c r="AD25" t="n">
-        <v>13550.875</v>
+        <v>13803.875</v>
       </c>
       <c r="AE25" t="n">
-        <v>15354</v>
+        <v>11385.625</v>
       </c>
       <c r="AF25" t="n">
-        <v>13865.25</v>
+        <v>13273.75</v>
       </c>
       <c r="AG25" t="n">
-        <v>13803.875</v>
+        <v>12754</v>
       </c>
       <c r="AH25" t="n">
-        <v>11385.625</v>
+        <v>12515.875</v>
       </c>
       <c r="AI25" t="n">
-        <v>13273.75</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>12754</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>12515.875</v>
-      </c>
-      <c r="AL25" t="n">
         <v>12933.625</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="n">
         <v>277.375</v>
@@ -3711,78 +3477,69 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.25</v>
+        <v>12</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="S26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>50.125</v>
       </c>
       <c r="U26" t="n">
-        <v>20.25</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>50.125</v>
+        <v>0.5</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>133.875</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.5</v>
+        <v>98.875</v>
       </c>
       <c r="AA26" t="n">
-        <v>133.875</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>98.875</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>322.75</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="AG26" t="n">
-        <v>322.75</v>
+        <v>4.25</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>294</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -3851,54 +3608,45 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>34.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>34.25</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>191.125</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>140.875</v>
       </c>
       <c r="AG27" t="n">
-        <v>191.125</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>140.875</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" t="n">
         <v>10590</v>
@@ -3937,84 +3685,75 @@
         <v>7466.25</v>
       </c>
       <c r="N28" t="n">
-        <v>14543.25</v>
+        <v>13717.5</v>
       </c>
       <c r="O28" t="n">
-        <v>16014.75</v>
+        <v>12762.25</v>
       </c>
       <c r="P28" t="n">
-        <v>15186</v>
+        <v>13256.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>13717.5</v>
+        <v>11123.25</v>
       </c>
       <c r="R28" t="n">
-        <v>12762.25</v>
+        <v>12118.25</v>
       </c>
       <c r="S28" t="n">
-        <v>13256.75</v>
+        <v>10987.875</v>
       </c>
       <c r="T28" t="n">
-        <v>11123.25</v>
+        <v>12312.375</v>
       </c>
       <c r="U28" t="n">
-        <v>12118.25</v>
+        <v>4237.375</v>
       </c>
       <c r="V28" t="n">
-        <v>10987.875</v>
+        <v>2302.875</v>
       </c>
       <c r="W28" t="n">
-        <v>12312.375</v>
+        <v>2861</v>
       </c>
       <c r="X28" t="n">
-        <v>4237.375</v>
+        <v>9510.875</v>
       </c>
       <c r="Y28" t="n">
-        <v>2302.875</v>
+        <v>5257.25</v>
       </c>
       <c r="Z28" t="n">
-        <v>2861</v>
+        <v>9299</v>
       </c>
       <c r="AA28" t="n">
-        <v>9510.875</v>
+        <v>12968.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>5257.25</v>
+        <v>14506</v>
       </c>
       <c r="AC28" t="n">
-        <v>9299</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>12968.75</v>
+        <v>10656.375</v>
       </c>
       <c r="AE28" t="n">
-        <v>14506</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>9364.375</v>
       </c>
       <c r="AG28" t="n">
-        <v>10656.375</v>
+        <v>11057.625</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>10768.125</v>
       </c>
       <c r="AI28" t="n">
-        <v>9364.375</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11057.625</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>10768.125</v>
-      </c>
-      <c r="AL28" t="n">
         <v>10745.875</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29" t="n">
         <v>242.25</v>
@@ -4053,84 +3792,75 @@
         <v>20.125</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.625</v>
       </c>
       <c r="O29" t="n">
-        <v>4.25</v>
+        <v>0.125</v>
       </c>
       <c r="P29" t="n">
-        <v>2.75</v>
+        <v>158</v>
       </c>
       <c r="Q29" t="n">
-        <v>16.625</v>
+        <v>81.5</v>
       </c>
       <c r="R29" t="n">
-        <v>0.125</v>
+        <v>344.25</v>
       </c>
       <c r="S29" t="n">
-        <v>158</v>
+        <v>2.25</v>
       </c>
       <c r="T29" t="n">
-        <v>81.5</v>
+        <v>139.375</v>
       </c>
       <c r="U29" t="n">
-        <v>344.25</v>
+        <v>12.75</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="W29" t="n">
-        <v>139.375</v>
+        <v>46</v>
       </c>
       <c r="X29" t="n">
-        <v>12.75</v>
+        <v>744</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.75</v>
+        <v>31</v>
       </c>
       <c r="Z29" t="n">
-        <v>46</v>
+        <v>1611.375</v>
       </c>
       <c r="AA29" t="n">
-        <v>744</v>
+        <v>85</v>
       </c>
       <c r="AB29" t="n">
-        <v>31</v>
+        <v>1196</v>
       </c>
       <c r="AC29" t="n">
-        <v>1611.375</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>85</v>
+        <v>383.375</v>
       </c>
       <c r="AE29" t="n">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>257.75</v>
       </c>
       <c r="AG29" t="n">
-        <v>383.375</v>
+        <v>40</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>21.125</v>
       </c>
       <c r="AI29" t="n">
-        <v>257.75</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>21.125</v>
-      </c>
-      <c r="AL29" t="n">
         <v>20.75</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
         <v>5379.5</v>
@@ -4169,84 +3899,75 @@
         <v>6086.75</v>
       </c>
       <c r="N30" t="n">
-        <v>6397.5</v>
+        <v>10602.75</v>
       </c>
       <c r="O30" t="n">
-        <v>5928</v>
+        <v>10738.625</v>
       </c>
       <c r="P30" t="n">
-        <v>9145.75</v>
+        <v>9597.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>10602.75</v>
+        <v>8220.125</v>
       </c>
       <c r="R30" t="n">
-        <v>10738.625</v>
+        <v>6212.375</v>
       </c>
       <c r="S30" t="n">
-        <v>9597.75</v>
+        <v>5633.625</v>
       </c>
       <c r="T30" t="n">
-        <v>8220.125</v>
+        <v>5327</v>
       </c>
       <c r="U30" t="n">
-        <v>6212.375</v>
+        <v>4306.5</v>
       </c>
       <c r="V30" t="n">
-        <v>5633.625</v>
+        <v>5169.25</v>
       </c>
       <c r="W30" t="n">
-        <v>5327</v>
+        <v>4363.5</v>
       </c>
       <c r="X30" t="n">
-        <v>4306.5</v>
+        <v>7625.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>5169.25</v>
+        <v>7678.125</v>
       </c>
       <c r="Z30" t="n">
-        <v>4363.5</v>
+        <v>7594.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>7625.75</v>
+        <v>8066</v>
       </c>
       <c r="AB30" t="n">
-        <v>7678.125</v>
+        <v>10429.25</v>
       </c>
       <c r="AC30" t="n">
-        <v>7594.5</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>8066</v>
+        <v>5695.875</v>
       </c>
       <c r="AE30" t="n">
-        <v>10429.25</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>5410.875</v>
       </c>
       <c r="AG30" t="n">
-        <v>5695.875</v>
+        <v>2246.75</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1780.25</v>
       </c>
       <c r="AI30" t="n">
-        <v>5410.875</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>2246.75</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1780.25</v>
-      </c>
-      <c r="AL30" t="n">
         <v>2593.75</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>2.75</v>
@@ -4350,19 +4071,10 @@
       <c r="AI31" t="n">
         <v>0</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" t="n">
         <v>291.125</v>
@@ -4401,84 +4113,75 @@
         <v>413.875</v>
       </c>
       <c r="N32" t="n">
-        <v>7968.5</v>
+        <v>1.25</v>
       </c>
       <c r="O32" t="n">
-        <v>9327.375</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>9291.5</v>
+        <v>187.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.25</v>
+        <v>232.75</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>5598.25</v>
       </c>
       <c r="S32" t="n">
-        <v>187.5</v>
+        <v>4624.25</v>
       </c>
       <c r="T32" t="n">
-        <v>232.75</v>
+        <v>5139.875</v>
       </c>
       <c r="U32" t="n">
-        <v>5598.25</v>
+        <v>730.375</v>
       </c>
       <c r="V32" t="n">
-        <v>4624.25</v>
+        <v>825.5</v>
       </c>
       <c r="W32" t="n">
-        <v>5139.875</v>
+        <v>726.5</v>
       </c>
       <c r="X32" t="n">
-        <v>730.375</v>
+        <v>6304.125</v>
       </c>
       <c r="Y32" t="n">
-        <v>825.5</v>
+        <v>1737</v>
       </c>
       <c r="Z32" t="n">
-        <v>726.5</v>
+        <v>6386.125</v>
       </c>
       <c r="AA32" t="n">
-        <v>6304.125</v>
+        <v>9683.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>1737</v>
+        <v>11813.875</v>
       </c>
       <c r="AC32" t="n">
-        <v>6386.125</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>9683.5</v>
+        <v>1025.375</v>
       </c>
       <c r="AE32" t="n">
-        <v>11813.875</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>934.875</v>
       </c>
       <c r="AG32" t="n">
-        <v>1025.375</v>
+        <v>5419.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>4832.375</v>
       </c>
       <c r="AI32" t="n">
-        <v>934.875</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>5419.75</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>4832.375</v>
-      </c>
-      <c r="AL32" t="n">
         <v>4911.625</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:35">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" t="n">
         <v>4752.5</v>
@@ -4517,84 +4220,75 @@
         <v>2559.625</v>
       </c>
       <c r="N33" t="n">
-        <v>6313.625</v>
+        <v>9926.375</v>
       </c>
       <c r="O33" t="n">
-        <v>8350.875</v>
+        <v>9490.625</v>
       </c>
       <c r="P33" t="n">
-        <v>8490</v>
+        <v>10076.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>9926.375</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9490.625</v>
+        <v>17</v>
       </c>
       <c r="S33" t="n">
-        <v>10076.75</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="U33" t="n">
-        <v>17</v>
+        <v>2388.875</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>2045.375</v>
       </c>
       <c r="W33" t="n">
-        <v>66</v>
+        <v>2243.75</v>
       </c>
       <c r="X33" t="n">
-        <v>2388.875</v>
+        <v>3060.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>2045.375</v>
+        <v>3496.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>2243.75</v>
+        <v>3561.625</v>
       </c>
       <c r="AA33" t="n">
-        <v>3060.75</v>
+        <v>12160.625</v>
       </c>
       <c r="AB33" t="n">
-        <v>3496.5</v>
+        <v>13770.75</v>
       </c>
       <c r="AC33" t="n">
-        <v>3561.625</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>12160.625</v>
+        <v>4865</v>
       </c>
       <c r="AE33" t="n">
-        <v>13770.75</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>5103.75</v>
       </c>
       <c r="AG33" t="n">
-        <v>4865</v>
+        <v>2772.25</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>2409.875</v>
       </c>
       <c r="AI33" t="n">
-        <v>5103.75</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>2772.25</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>2409.875</v>
-      </c>
-      <c r="AL33" t="n">
         <v>3079.5</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:35">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" t="n">
         <v>9894.125</v>
@@ -4633,84 +4327,75 @@
         <v>9127.125</v>
       </c>
       <c r="N34" t="n">
-        <v>13923.375</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>15164.375</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>14797.625</v>
+        <v>205.625</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8951.5</v>
       </c>
       <c r="S34" t="n">
-        <v>205.625</v>
+        <v>8399.625</v>
       </c>
       <c r="T34" t="n">
-        <v>16.5</v>
+        <v>9205.25</v>
       </c>
       <c r="U34" t="n">
-        <v>8951.5</v>
+        <v>6727.625</v>
       </c>
       <c r="V34" t="n">
-        <v>8399.625</v>
+        <v>5904</v>
       </c>
       <c r="W34" t="n">
-        <v>9205.25</v>
+        <v>6555.75</v>
       </c>
       <c r="X34" t="n">
-        <v>6727.625</v>
+        <v>9268.875</v>
       </c>
       <c r="Y34" t="n">
-        <v>5904</v>
+        <v>8373.625</v>
       </c>
       <c r="Z34" t="n">
-        <v>6555.75</v>
+        <v>9631.125</v>
       </c>
       <c r="AA34" t="n">
-        <v>9268.875</v>
+        <v>14009.125</v>
       </c>
       <c r="AB34" t="n">
-        <v>8373.625</v>
+        <v>15791.25</v>
       </c>
       <c r="AC34" t="n">
-        <v>9631.125</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>14009.125</v>
+        <v>9885.375</v>
       </c>
       <c r="AE34" t="n">
-        <v>15791.25</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>10445.625</v>
       </c>
       <c r="AG34" t="n">
-        <v>9885.375</v>
+        <v>10514.25</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>10298.25</v>
       </c>
       <c r="AI34" t="n">
-        <v>10445.625</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>10514.25</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>10298.25</v>
-      </c>
-      <c r="AL34" t="n">
         <v>10785.25</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:35">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" t="n">
         <v>2.5</v>
@@ -4761,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -4770,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4779,54 +4464,45 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG35" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:35">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" t="n">
         <v>39.5</v>
@@ -4871,78 +4547,69 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="S36" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>13.625</v>
       </c>
       <c r="U36" t="n">
-        <v>14.75</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>13.625</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>118.875</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>70.75</v>
       </c>
       <c r="AA36" t="n">
-        <v>118.875</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>70.75</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>149.5</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>45.625</v>
       </c>
       <c r="AG36" t="n">
-        <v>149.5</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>45.625</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:35">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" t="n">
         <v>632.875</v>
@@ -4981,84 +4648,75 @@
         <v>0.25</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>54.625</v>
       </c>
       <c r="O37" t="n">
-        <v>38.25</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>33.875</v>
+        <v>322.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.625</v>
+        <v>48</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>1010.375</v>
       </c>
       <c r="S37" t="n">
-        <v>322.75</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>48</v>
+        <v>414.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1010.375</v>
+        <v>90.5</v>
       </c>
       <c r="V37" t="n">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="W37" t="n">
-        <v>414.75</v>
+        <v>341.375</v>
       </c>
       <c r="X37" t="n">
-        <v>90.5</v>
+        <v>1050.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.25</v>
+        <v>7.625</v>
       </c>
       <c r="Z37" t="n">
-        <v>341.375</v>
+        <v>742.875</v>
       </c>
       <c r="AA37" t="n">
-        <v>1050.5</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.625</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>742.875</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>687.875</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>642.625</v>
       </c>
       <c r="AG37" t="n">
-        <v>687.875</v>
+        <v>94.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>18.375</v>
       </c>
       <c r="AI37" t="n">
-        <v>642.625</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>18.375</v>
-      </c>
-      <c r="AL37" t="n">
         <v>17.75</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:35">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" t="n">
         <v>13330.25</v>
@@ -5097,84 +4755,75 @@
         <v>11595.875</v>
       </c>
       <c r="N38" t="n">
-        <v>15062.375</v>
+        <v>14751.5</v>
       </c>
       <c r="O38" t="n">
-        <v>16078.25</v>
+        <v>14284.875</v>
       </c>
       <c r="P38" t="n">
-        <v>15826.125</v>
+        <v>14979.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>14751.5</v>
+        <v>14436</v>
       </c>
       <c r="R38" t="n">
-        <v>14284.875</v>
+        <v>13453.25</v>
       </c>
       <c r="S38" t="n">
-        <v>14979.75</v>
+        <v>12230.875</v>
       </c>
       <c r="T38" t="n">
-        <v>14436</v>
+        <v>13038.375</v>
       </c>
       <c r="U38" t="n">
-        <v>13453.25</v>
+        <v>8946.5</v>
       </c>
       <c r="V38" t="n">
-        <v>12230.875</v>
+        <v>8455</v>
       </c>
       <c r="W38" t="n">
-        <v>13038.375</v>
+        <v>9051.625</v>
       </c>
       <c r="X38" t="n">
-        <v>8946.5</v>
+        <v>13510.875</v>
       </c>
       <c r="Y38" t="n">
-        <v>8455</v>
+        <v>12431.875</v>
       </c>
       <c r="Z38" t="n">
-        <v>9051.625</v>
+        <v>13894.375</v>
       </c>
       <c r="AA38" t="n">
-        <v>13510.875</v>
+        <v>13910.125</v>
       </c>
       <c r="AB38" t="n">
-        <v>12431.875</v>
+        <v>14749.375</v>
       </c>
       <c r="AC38" t="n">
-        <v>13894.375</v>
+        <v>9964.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>13910.125</v>
+        <v>14198.875</v>
       </c>
       <c r="AE38" t="n">
-        <v>14749.375</v>
+        <v>14060.625</v>
       </c>
       <c r="AF38" t="n">
-        <v>9964.5</v>
+        <v>14297.875</v>
       </c>
       <c r="AG38" t="n">
-        <v>14198.875</v>
+        <v>12206</v>
       </c>
       <c r="AH38" t="n">
-        <v>14060.625</v>
+        <v>11701.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>14297.875</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>12206</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>11701.5</v>
-      </c>
-      <c r="AL38" t="n">
         <v>12553.25</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:35">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B39" t="n">
         <v>3408.25</v>
@@ -5213,25 +4862,25 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>685.875</v>
+        <v>1851.375</v>
       </c>
       <c r="O39" t="n">
-        <v>917.875</v>
+        <v>1259</v>
       </c>
       <c r="P39" t="n">
-        <v>1298</v>
+        <v>1310.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>1851.375</v>
+        <v>1773.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1259</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1310.25</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1773.25</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -5243,54 +4892,45 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AA39" t="n">
-        <v>210</v>
+        <v>9688</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>11465.875</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.25</v>
+        <v>5725</v>
       </c>
       <c r="AD39" t="n">
-        <v>9688</v>
+        <v>32.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>11465.875</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>5725</v>
+        <v>3.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:35">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B40" t="n">
         <v>109.75</v>
@@ -5329,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>359.75</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.625</v>
+        <v>8</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -5344,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -5394,19 +5034,10 @@
       <c r="AI40" t="n">
         <v>0</v>
       </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:35">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -5463,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -5472,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -5510,19 +5141,10 @@
       <c r="AI41" t="n">
         <v>0</v>
       </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:35">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" t="n">
         <v>7417</v>
@@ -5561,84 +5183,75 @@
         <v>8616.5</v>
       </c>
       <c r="N42" t="n">
-        <v>11984.375</v>
+        <v>13431.25</v>
       </c>
       <c r="O42" t="n">
-        <v>12862.875</v>
+        <v>13387.875</v>
       </c>
       <c r="P42" t="n">
-        <v>13334.75</v>
+        <v>13774.875</v>
       </c>
       <c r="Q42" t="n">
-        <v>13431.25</v>
+        <v>13468.875</v>
       </c>
       <c r="R42" t="n">
-        <v>13387.875</v>
+        <v>7414.625</v>
       </c>
       <c r="S42" t="n">
-        <v>13774.875</v>
+        <v>6586.125</v>
       </c>
       <c r="T42" t="n">
-        <v>13468.875</v>
+        <v>7514.125</v>
       </c>
       <c r="U42" t="n">
-        <v>7414.625</v>
+        <v>7452.25</v>
       </c>
       <c r="V42" t="n">
-        <v>6586.125</v>
+        <v>7393.75</v>
       </c>
       <c r="W42" t="n">
-        <v>7514.125</v>
+        <v>7476.125</v>
       </c>
       <c r="X42" t="n">
-        <v>7452.25</v>
+        <v>6795.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>7393.75</v>
+        <v>5936.625</v>
       </c>
       <c r="Z42" t="n">
-        <v>7476.125</v>
+        <v>6631.625</v>
       </c>
       <c r="AA42" t="n">
-        <v>6795.5</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>5936.625</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>6631.625</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>129.125</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AG42" t="n">
-        <v>129.125</v>
+        <v>6328.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.5</v>
+        <v>5881.25</v>
       </c>
       <c r="AI42" t="n">
-        <v>124</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>6328.5</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>5881.25</v>
-      </c>
-      <c r="AL42" t="n">
         <v>6603.125</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:35">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B43" t="n">
         <v>8474.75</v>
@@ -5677,84 +5290,75 @@
         <v>3605</v>
       </c>
       <c r="N43" t="n">
-        <v>13404.375</v>
+        <v>14598.875</v>
       </c>
       <c r="O43" t="n">
-        <v>15041.125</v>
+        <v>13806.75</v>
       </c>
       <c r="P43" t="n">
-        <v>14479.875</v>
+        <v>15251.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>14598.875</v>
+        <v>14239.625</v>
       </c>
       <c r="R43" t="n">
-        <v>13806.75</v>
+        <v>6384.5</v>
       </c>
       <c r="S43" t="n">
-        <v>15251.75</v>
+        <v>5428.375</v>
       </c>
       <c r="T43" t="n">
-        <v>14239.625</v>
+        <v>5563.5</v>
       </c>
       <c r="U43" t="n">
-        <v>6384.5</v>
+        <v>5330.125</v>
       </c>
       <c r="V43" t="n">
-        <v>5428.375</v>
+        <v>4633.375</v>
       </c>
       <c r="W43" t="n">
-        <v>5563.5</v>
+        <v>5593.25</v>
       </c>
       <c r="X43" t="n">
-        <v>5330.125</v>
+        <v>7161.625</v>
       </c>
       <c r="Y43" t="n">
-        <v>4633.375</v>
+        <v>1.375</v>
       </c>
       <c r="Z43" t="n">
-        <v>5593.25</v>
+        <v>6535.375</v>
       </c>
       <c r="AA43" t="n">
-        <v>7161.625</v>
+        <v>5793.875</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.375</v>
+        <v>5914.875</v>
       </c>
       <c r="AC43" t="n">
-        <v>6535.375</v>
+        <v>7007.375</v>
       </c>
       <c r="AD43" t="n">
-        <v>5793.875</v>
+        <v>1694.25</v>
       </c>
       <c r="AE43" t="n">
-        <v>5914.875</v>
+        <v>649.375</v>
       </c>
       <c r="AF43" t="n">
-        <v>7007.375</v>
+        <v>2933</v>
       </c>
       <c r="AG43" t="n">
-        <v>1694.25</v>
+        <v>11504.375</v>
       </c>
       <c r="AH43" t="n">
-        <v>649.375</v>
+        <v>10746</v>
       </c>
       <c r="AI43" t="n">
-        <v>2933</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>11504.375</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>10746</v>
-      </c>
-      <c r="AL43" t="n">
         <v>11621.25</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:35">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44" t="n">
         <v>3737.125</v>
@@ -5793,84 +5397,75 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4262.125</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>4247.625</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>4214.125</v>
+        <v>0.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2213.75</v>
       </c>
       <c r="S44" t="n">
-        <v>0.5</v>
+        <v>1468</v>
       </c>
       <c r="T44" t="n">
-        <v>0.25</v>
+        <v>2237.5</v>
       </c>
       <c r="U44" t="n">
-        <v>2213.75</v>
+        <v>32.5</v>
       </c>
       <c r="V44" t="n">
-        <v>1468</v>
+        <v>5.75</v>
       </c>
       <c r="W44" t="n">
-        <v>2237.5</v>
+        <v>158</v>
       </c>
       <c r="X44" t="n">
-        <v>32.5</v>
+        <v>1795.375</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.75</v>
+        <v>186</v>
       </c>
       <c r="Z44" t="n">
-        <v>158</v>
+        <v>2203.125</v>
       </c>
       <c r="AA44" t="n">
-        <v>1795.375</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>186</v>
+        <v>6.75</v>
       </c>
       <c r="AC44" t="n">
-        <v>2203.125</v>
+        <v>2</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>799.625</v>
       </c>
       <c r="AE44" t="n">
-        <v>6.75</v>
+        <v>122.125</v>
       </c>
       <c r="AF44" t="n">
-        <v>2</v>
+        <v>801.75</v>
       </c>
       <c r="AG44" t="n">
-        <v>799.625</v>
+        <v>886.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>122.125</v>
+        <v>611.625</v>
       </c>
       <c r="AI44" t="n">
-        <v>801.75</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>886.5</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>611.625</v>
-      </c>
-      <c r="AL44" t="n">
         <v>1520.375</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:35">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -5939,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5948,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
@@ -5974,19 +5569,10 @@
       <c r="AI45" t="n">
         <v>0</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:35">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" t="n">
         <v>0.125</v>
@@ -6043,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -6052,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -6079,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG46" t="n">
         <v>0</v>
@@ -6088,21 +5674,12 @@
         <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:35">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -6189,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AE47" t="n">
         <v>0</v>
@@ -6198,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
         <v>0</v>
@@ -6206,19 +5783,10 @@
       <c r="AI47" t="n">
         <v>0</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:35">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" t="n">
         <v>7570.875</v>
@@ -6257,84 +5825,75 @@
         <v>1632.625</v>
       </c>
       <c r="N48" t="n">
-        <v>12045.875</v>
+        <v>91.75</v>
       </c>
       <c r="O48" t="n">
-        <v>13153.625</v>
+        <v>25.25</v>
       </c>
       <c r="P48" t="n">
-        <v>12555.25</v>
+        <v>733.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>91.75</v>
+        <v>509.125</v>
       </c>
       <c r="R48" t="n">
-        <v>25.25</v>
+        <v>497.625</v>
       </c>
       <c r="S48" t="n">
-        <v>733.5</v>
+        <v>270.5</v>
       </c>
       <c r="T48" t="n">
-        <v>509.125</v>
+        <v>917.875</v>
       </c>
       <c r="U48" t="n">
-        <v>497.625</v>
+        <v>1295.25</v>
       </c>
       <c r="V48" t="n">
-        <v>270.5</v>
+        <v>1210.75</v>
       </c>
       <c r="W48" t="n">
-        <v>917.875</v>
+        <v>1925.5</v>
       </c>
       <c r="X48" t="n">
-        <v>1295.25</v>
+        <v>8237.125</v>
       </c>
       <c r="Y48" t="n">
-        <v>1210.75</v>
+        <v>7553.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>1925.5</v>
+        <v>8617.375</v>
       </c>
       <c r="AA48" t="n">
-        <v>8237.125</v>
+        <v>48.625</v>
       </c>
       <c r="AB48" t="n">
-        <v>7553.5</v>
+        <v>990.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>8617.375</v>
+        <v>364.125</v>
       </c>
       <c r="AD48" t="n">
-        <v>48.625</v>
+        <v>12996.25</v>
       </c>
       <c r="AE48" t="n">
-        <v>990.5</v>
+        <v>11811.25</v>
       </c>
       <c r="AF48" t="n">
-        <v>364.125</v>
+        <v>12950.25</v>
       </c>
       <c r="AG48" t="n">
-        <v>12996.25</v>
+        <v>9688.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>11811.25</v>
+        <v>9433.75</v>
       </c>
       <c r="AI48" t="n">
-        <v>12950.25</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>9688.5</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>9433.75</v>
-      </c>
-      <c r="AL48" t="n">
         <v>9812</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:35">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B49" t="n">
         <v>653.875</v>
@@ -6373,84 +5932,75 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.75</v>
+        <v>9.75</v>
       </c>
       <c r="O49" t="n">
-        <v>18</v>
+        <v>2.25</v>
       </c>
       <c r="P49" t="n">
-        <v>37.75</v>
+        <v>86.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>9.75</v>
+        <v>40.25</v>
       </c>
       <c r="R49" t="n">
-        <v>2.25</v>
+        <v>497.625</v>
       </c>
       <c r="S49" t="n">
-        <v>86.25</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>40.25</v>
+        <v>283.5</v>
       </c>
       <c r="U49" t="n">
-        <v>497.625</v>
+        <v>16.875</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W49" t="n">
-        <v>283.5</v>
+        <v>48.5</v>
       </c>
       <c r="X49" t="n">
-        <v>16.875</v>
+        <v>798.875</v>
       </c>
       <c r="Y49" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>48.5</v>
+        <v>319.125</v>
       </c>
       <c r="AA49" t="n">
-        <v>798.875</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>319.125</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>499.5</v>
       </c>
       <c r="AE49" t="n">
         <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>489.25</v>
       </c>
       <c r="AG49" t="n">
-        <v>499.5</v>
+        <v>23.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>14.125</v>
       </c>
       <c r="AI49" t="n">
-        <v>489.25</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>14.125</v>
-      </c>
-      <c r="AL49" t="n">
         <v>155.75</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:35">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B50" t="n">
         <v>13431.5</v>
@@ -6489,84 +6039,75 @@
         <v>13239.125</v>
       </c>
       <c r="N50" t="n">
-        <v>15782.375</v>
+        <v>14745</v>
       </c>
       <c r="O50" t="n">
-        <v>15816.75</v>
+        <v>14617.25</v>
       </c>
       <c r="P50" t="n">
-        <v>15398</v>
+        <v>15338.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>14745</v>
+        <v>12</v>
       </c>
       <c r="R50" t="n">
-        <v>14617.25</v>
+        <v>12779.375</v>
       </c>
       <c r="S50" t="n">
-        <v>15338.5</v>
+        <v>12232</v>
       </c>
       <c r="T50" t="n">
-        <v>12</v>
+        <v>13073.875</v>
       </c>
       <c r="U50" t="n">
-        <v>12779.375</v>
+        <v>9743.625</v>
       </c>
       <c r="V50" t="n">
-        <v>12232</v>
+        <v>9722.375</v>
       </c>
       <c r="W50" t="n">
-        <v>13073.875</v>
+        <v>9888</v>
       </c>
       <c r="X50" t="n">
-        <v>9743.625</v>
+        <v>13842.25</v>
       </c>
       <c r="Y50" t="n">
-        <v>9722.375</v>
+        <v>12627.25</v>
       </c>
       <c r="Z50" t="n">
-        <v>9888</v>
+        <v>13686</v>
       </c>
       <c r="AA50" t="n">
-        <v>13842.25</v>
+        <v>14782.125</v>
       </c>
       <c r="AB50" t="n">
-        <v>12627.25</v>
+        <v>14920.75</v>
       </c>
       <c r="AC50" t="n">
-        <v>13686</v>
+        <v>13929.25</v>
       </c>
       <c r="AD50" t="n">
-        <v>14782.125</v>
+        <v>14692.625</v>
       </c>
       <c r="AE50" t="n">
-        <v>14920.75</v>
+        <v>14111.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>13929.25</v>
+        <v>14464</v>
       </c>
       <c r="AG50" t="n">
-        <v>14692.625</v>
+        <v>12561.375</v>
       </c>
       <c r="AH50" t="n">
-        <v>14111.5</v>
+        <v>11925.625</v>
       </c>
       <c r="AI50" t="n">
-        <v>14464</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>12561.375</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>11925.625</v>
-      </c>
-      <c r="AL50" t="n">
         <v>13221.125</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:35">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B51" t="n">
         <v>1033.75</v>
@@ -6635,22 +6176,22 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>376.125</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>248.25</v>
       </c>
       <c r="AA51" t="n">
-        <v>376.125</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>248.25</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -6670,19 +6211,10 @@
       <c r="AI51" t="n">
         <v>0</v>
       </c>
-      <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:35">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -6757,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
@@ -6766,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -6786,19 +6318,10 @@
       <c r="AI52" t="n">
         <v>0</v>
       </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:35">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -6843,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -6852,37 +6375,37 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>9.25</v>
+        <v>0.375</v>
       </c>
       <c r="Y53" t="n">
         <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>14.125</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="n">
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>14.125</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -6902,19 +6425,10 @@
       <c r="AI53" t="n">
         <v>0</v>
       </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B54" t="n">
         <v>4379.375</v>
@@ -6953,84 +6467,75 @@
         <v>6512.875</v>
       </c>
       <c r="N54" t="n">
-        <v>10889.125</v>
+        <v>12852.75</v>
       </c>
       <c r="O54" t="n">
-        <v>11613</v>
+        <v>12486.25</v>
       </c>
       <c r="P54" t="n">
-        <v>12374.25</v>
+        <v>12721.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>12852.75</v>
+        <v>13004.875</v>
       </c>
       <c r="R54" t="n">
-        <v>12486.25</v>
+        <v>5762.375</v>
       </c>
       <c r="S54" t="n">
-        <v>12721.25</v>
+        <v>5861.375</v>
       </c>
       <c r="T54" t="n">
-        <v>13004.875</v>
+        <v>6199.375</v>
       </c>
       <c r="U54" t="n">
-        <v>5762.375</v>
+        <v>6443.625</v>
       </c>
       <c r="V54" t="n">
-        <v>5861.375</v>
+        <v>6579.75</v>
       </c>
       <c r="W54" t="n">
-        <v>6199.375</v>
+        <v>7376.25</v>
       </c>
       <c r="X54" t="n">
-        <v>6443.625</v>
+        <v>6071.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>6579.75</v>
+        <v>5270.625</v>
       </c>
       <c r="Z54" t="n">
-        <v>7376.25</v>
+        <v>7033</v>
       </c>
       <c r="AA54" t="n">
-        <v>6071.5</v>
+        <v>12.75</v>
       </c>
       <c r="AB54" t="n">
-        <v>5270.625</v>
+        <v>1760.375</v>
       </c>
       <c r="AC54" t="n">
-        <v>7033</v>
+        <v>311.375</v>
       </c>
       <c r="AD54" t="n">
-        <v>12.75</v>
+        <v>686.625</v>
       </c>
       <c r="AE54" t="n">
-        <v>1760.375</v>
+        <v>36.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>311.375</v>
+        <v>534</v>
       </c>
       <c r="AG54" t="n">
-        <v>686.625</v>
+        <v>5149</v>
       </c>
       <c r="AH54" t="n">
-        <v>36.5</v>
+        <v>4609.375</v>
       </c>
       <c r="AI54" t="n">
-        <v>534</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>5149</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>4609.375</v>
-      </c>
-      <c r="AL54" t="n">
         <v>5391.125</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:35">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B55" t="n">
         <v>0.25</v>
@@ -7099,22 +6604,22 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -7123,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG55" t="n">
         <v>0</v>
@@ -7132,21 +6637,12 @@
         <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:35">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B56" t="n">
         <v>109.625</v>
@@ -7191,78 +6687,69 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>6.5</v>
+        <v>41.25</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="S56" t="n">
-        <v>41.25</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
+        <v>68.125</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>97</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>192.125</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
         <v>4.25</v>
       </c>
-      <c r="U56" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>68.125</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>97</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>192.125</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>8</v>
-      </c>
       <c r="AG56" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH56" t="n">
         <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:35">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B57" t="n">
         <v>0.75</v>
@@ -7349,36 +6836,27 @@
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>15.625</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AH57" t="n">
         <v>0</v>
       </c>
       <c r="AI57" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B58" t="n">
         <v>3.5</v>
@@ -7447,54 +6925,45 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="Y58" t="n">
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="AB58" t="n">
         <v>0</v>
       </c>
       <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>8.625</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
         <v>1</v>
       </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
       <c r="AG58" t="n">
-        <v>8.625</v>
+        <v>0</v>
       </c>
       <c r="AH58" t="n">
         <v>0</v>
       </c>
       <c r="AI58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:35">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B59" t="n">
         <v>73.75</v>
@@ -7545,72 +7014,63 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="U59" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>89.25</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA59" t="n">
-        <v>89.25</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>290.75</v>
       </c>
       <c r="AE59" t="n">
         <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>221.75</v>
       </c>
       <c r="AG59" t="n">
-        <v>290.75</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>221.75</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:35">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -7664,69 +7124,60 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
         <v>0.75</v>
       </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0.25</v>
-      </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
       <c r="AH60" t="n">
         <v>0</v>
       </c>
       <c r="AI60" t="n">
         <v>0</v>
       </c>
-      <c r="AJ60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:35">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B61" t="n">
         <v>24.375</v>
@@ -7765,84 +7216,75 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="O61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P61" t="n">
+        <v>241.375</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>32</v>
+      </c>
+      <c r="R61" t="n">
+        <v>94</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>53.625</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V61" t="n">
         <v>0.25</v>
       </c>
-      <c r="P61" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S61" t="n">
-        <v>241.375</v>
-      </c>
-      <c r="T61" t="n">
-        <v>32</v>
-      </c>
-      <c r="U61" t="n">
-        <v>94</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
       <c r="W61" t="n">
-        <v>53.625</v>
+        <v>7.25</v>
       </c>
       <c r="X61" t="n">
-        <v>1.75</v>
+        <v>78.875</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.25</v>
+        <v>2.125</v>
       </c>
       <c r="Z61" t="n">
-        <v>7.25</v>
+        <v>22</v>
       </c>
       <c r="AA61" t="n">
-        <v>78.875</v>
+        <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>2.125</v>
+        <v>0.75</v>
       </c>
       <c r="AC61" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AG61" t="n">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>5.125</v>
       </c>
       <c r="AI61" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>5.125</v>
-      </c>
-      <c r="AL61" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B62" t="n">
         <v>319.375</v>
@@ -7881,84 +7323,75 @@
         <v>0.5</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>13.625</v>
       </c>
       <c r="O62" t="n">
-        <v>156.125</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>53.75</v>
+        <v>154</v>
       </c>
       <c r="Q62" t="n">
-        <v>13.625</v>
+        <v>2.5</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>272.75</v>
       </c>
       <c r="S62" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>2.5</v>
+        <v>328</v>
       </c>
       <c r="U62" t="n">
-        <v>272.75</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>328</v>
+        <v>95.125</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>402.375</v>
       </c>
       <c r="Y62" t="n">
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>95.125</v>
+        <v>327</v>
       </c>
       <c r="AA62" t="n">
-        <v>402.375</v>
+        <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>542.375</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>463.875</v>
       </c>
       <c r="AG62" t="n">
-        <v>542.375</v>
+        <v>21</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>26.875</v>
       </c>
       <c r="AI62" t="n">
-        <v>463.875</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>26.875</v>
-      </c>
-      <c r="AL62" t="n">
         <v>8.25</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:35">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B63" t="n">
         <v>7418.625</v>
@@ -7997,84 +7430,75 @@
         <v>4929.875</v>
       </c>
       <c r="N63" t="n">
-        <v>13440</v>
+        <v>13935</v>
       </c>
       <c r="O63" t="n">
-        <v>13859.5</v>
+        <v>13766.125</v>
       </c>
       <c r="P63" t="n">
-        <v>13697.25</v>
+        <v>14494</v>
       </c>
       <c r="Q63" t="n">
-        <v>13935</v>
+        <v>14650.5</v>
       </c>
       <c r="R63" t="n">
-        <v>13766.125</v>
+        <v>9256.375</v>
       </c>
       <c r="S63" t="n">
-        <v>14494</v>
+        <v>8927.875</v>
       </c>
       <c r="T63" t="n">
-        <v>14650.5</v>
+        <v>9285.125</v>
       </c>
       <c r="U63" t="n">
-        <v>9256.375</v>
+        <v>2681.375</v>
       </c>
       <c r="V63" t="n">
-        <v>8927.875</v>
+        <v>2995.75</v>
       </c>
       <c r="W63" t="n">
-        <v>9285.125</v>
+        <v>4002.125</v>
       </c>
       <c r="X63" t="n">
-        <v>2681.375</v>
+        <v>9976</v>
       </c>
       <c r="Y63" t="n">
-        <v>2995.75</v>
+        <v>8179.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>4002.125</v>
+        <v>8912.375</v>
       </c>
       <c r="AA63" t="n">
-        <v>9976</v>
+        <v>13538.25</v>
       </c>
       <c r="AB63" t="n">
-        <v>8179.5</v>
+        <v>13705.375</v>
       </c>
       <c r="AC63" t="n">
-        <v>8912.375</v>
+        <v>13621.125</v>
       </c>
       <c r="AD63" t="n">
-        <v>13538.25</v>
+        <v>11508.625</v>
       </c>
       <c r="AE63" t="n">
-        <v>13705.375</v>
+        <v>11485.625</v>
       </c>
       <c r="AF63" t="n">
-        <v>13621.125</v>
+        <v>11205.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>11508.625</v>
+        <v>11121.125</v>
       </c>
       <c r="AH63" t="n">
-        <v>11485.625</v>
+        <v>10290</v>
       </c>
       <c r="AI63" t="n">
-        <v>11205.5</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>11121.125</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>10290</v>
-      </c>
-      <c r="AL63" t="n">
         <v>11445.75</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:35">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" t="n">
         <v>29.75</v>
@@ -8113,84 +7537,75 @@
         <v>667.75</v>
       </c>
       <c r="N64" t="n">
-        <v>6974.375</v>
+        <v>0.5</v>
       </c>
       <c r="O64" t="n">
-        <v>9106.25</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>7185.375</v>
+        <v>14.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>7341.125</v>
       </c>
       <c r="S64" t="n">
-        <v>14.5</v>
+        <v>7271.75</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>7101.125</v>
       </c>
       <c r="U64" t="n">
-        <v>7341.125</v>
+        <v>5209.25</v>
       </c>
       <c r="V64" t="n">
-        <v>7271.75</v>
+        <v>4755.625</v>
       </c>
       <c r="W64" t="n">
-        <v>7101.125</v>
+        <v>5106.875</v>
       </c>
       <c r="X64" t="n">
-        <v>5209.25</v>
+        <v>459.375</v>
       </c>
       <c r="Y64" t="n">
-        <v>4755.625</v>
+        <v>58.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>5106.875</v>
+        <v>556.125</v>
       </c>
       <c r="AA64" t="n">
-        <v>459.375</v>
+        <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>556.125</v>
+        <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>2211.875</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>1994.25</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1635.75</v>
       </c>
       <c r="AG64" t="n">
-        <v>2211.875</v>
+        <v>967.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>1994.25</v>
+        <v>617.875</v>
       </c>
       <c r="AI64" t="n">
-        <v>1635.75</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>967.5</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>617.875</v>
-      </c>
-      <c r="AL64" t="n">
         <v>946.125</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:35">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" t="n">
         <v>347.75</v>
@@ -8229,25 +7644,25 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="O65" t="n">
-        <v>587.125</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>233.875</v>
+        <v>187.625</v>
       </c>
       <c r="Q65" t="n">
-        <v>5.75</v>
+        <v>190.875</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>187.625</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>190.875</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -8294,19 +7709,10 @@
       <c r="AI65" t="n">
         <v>0</v>
       </c>
-      <c r="AJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:35">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" t="n">
         <v>10430.5</v>
@@ -8345,84 +7751,75 @@
         <v>8870.25</v>
       </c>
       <c r="N66" t="n">
-        <v>15262.5</v>
+        <v>14128.75</v>
       </c>
       <c r="O66" t="n">
-        <v>15980.125</v>
+        <v>13501.375</v>
       </c>
       <c r="P66" t="n">
-        <v>15018.5</v>
+        <v>14351</v>
       </c>
       <c r="Q66" t="n">
-        <v>14128.75</v>
+        <v>14120.125</v>
       </c>
       <c r="R66" t="n">
-        <v>13501.375</v>
+        <v>10432.5</v>
       </c>
       <c r="S66" t="n">
-        <v>14351</v>
+        <v>11590.375</v>
       </c>
       <c r="T66" t="n">
-        <v>14120.125</v>
+        <v>12182.5</v>
       </c>
       <c r="U66" t="n">
-        <v>10432.5</v>
+        <v>7179.75</v>
       </c>
       <c r="V66" t="n">
-        <v>11590.375</v>
+        <v>6321.625</v>
       </c>
       <c r="W66" t="n">
-        <v>12182.5</v>
+        <v>7237.875</v>
       </c>
       <c r="X66" t="n">
-        <v>7179.75</v>
+        <v>9393.25</v>
       </c>
       <c r="Y66" t="n">
-        <v>6321.625</v>
+        <v>7825.625</v>
       </c>
       <c r="Z66" t="n">
-        <v>7237.875</v>
+        <v>7537</v>
       </c>
       <c r="AA66" t="n">
-        <v>9393.25</v>
+        <v>13487.75</v>
       </c>
       <c r="AB66" t="n">
-        <v>7825.625</v>
+        <v>14656.125</v>
       </c>
       <c r="AC66" t="n">
-        <v>7537</v>
+        <v>14570</v>
       </c>
       <c r="AD66" t="n">
-        <v>13487.75</v>
+        <v>13108.625</v>
       </c>
       <c r="AE66" t="n">
-        <v>14656.125</v>
+        <v>12655</v>
       </c>
       <c r="AF66" t="n">
-        <v>14570</v>
+        <v>13844.625</v>
       </c>
       <c r="AG66" t="n">
-        <v>13108.625</v>
+        <v>11875.875</v>
       </c>
       <c r="AH66" t="n">
-        <v>12655</v>
+        <v>11109.625</v>
       </c>
       <c r="AI66" t="n">
-        <v>13844.625</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>11875.875</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>11109.625</v>
-      </c>
-      <c r="AL66" t="n">
         <v>11558.75</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:35">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B67" t="n">
         <v>6878.75</v>
@@ -8461,84 +7858,75 @@
         <v>2892</v>
       </c>
       <c r="N67" t="n">
-        <v>8674.25</v>
+        <v>9379.875</v>
       </c>
       <c r="O67" t="n">
-        <v>8136.875</v>
+        <v>9330.75</v>
       </c>
       <c r="P67" t="n">
-        <v>12772.625</v>
+        <v>7632.125</v>
       </c>
       <c r="Q67" t="n">
-        <v>9379.875</v>
+        <v>6968.125</v>
       </c>
       <c r="R67" t="n">
-        <v>9330.75</v>
+        <v>7108</v>
       </c>
       <c r="S67" t="n">
-        <v>7632.125</v>
+        <v>5759.125</v>
       </c>
       <c r="T67" t="n">
-        <v>6968.125</v>
+        <v>6451.875</v>
       </c>
       <c r="U67" t="n">
-        <v>7108</v>
+        <v>1130.25</v>
       </c>
       <c r="V67" t="n">
-        <v>5759.125</v>
+        <v>662.375</v>
       </c>
       <c r="W67" t="n">
-        <v>6451.875</v>
+        <v>1431.125</v>
       </c>
       <c r="X67" t="n">
-        <v>1130.25</v>
+        <v>3802.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>662.375</v>
+        <v>442.625</v>
       </c>
       <c r="Z67" t="n">
-        <v>1431.125</v>
+        <v>5885.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>3802.5</v>
+        <v>8158</v>
       </c>
       <c r="AB67" t="n">
-        <v>442.625</v>
+        <v>9110.25</v>
       </c>
       <c r="AC67" t="n">
-        <v>5885.5</v>
+        <v>8303.625</v>
       </c>
       <c r="AD67" t="n">
-        <v>8158</v>
+        <v>4485.375</v>
       </c>
       <c r="AE67" t="n">
-        <v>9110.25</v>
+        <v>3611.125</v>
       </c>
       <c r="AF67" t="n">
-        <v>8303.625</v>
+        <v>4287.875</v>
       </c>
       <c r="AG67" t="n">
-        <v>4485.375</v>
+        <v>7962.75</v>
       </c>
       <c r="AH67" t="n">
-        <v>3611.125</v>
+        <v>7880.375</v>
       </c>
       <c r="AI67" t="n">
-        <v>4287.875</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>7962.75</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>7880.375</v>
-      </c>
-      <c r="AL67" t="n">
         <v>7865.375</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B68" t="n">
         <v>3031.625</v>
@@ -8577,84 +7965,75 @@
         <v>337.5</v>
       </c>
       <c r="N68" t="n">
-        <v>2124.75</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>2318.875</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>4730.25</v>
+        <v>12</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>3370.5</v>
       </c>
       <c r="S68" t="n">
-        <v>12</v>
+        <v>3045.5</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>3214.125</v>
       </c>
       <c r="U68" t="n">
-        <v>3370.5</v>
+        <v>498.25</v>
       </c>
       <c r="V68" t="n">
-        <v>3045.5</v>
+        <v>147.125</v>
       </c>
       <c r="W68" t="n">
-        <v>3214.125</v>
+        <v>757.5</v>
       </c>
       <c r="X68" t="n">
-        <v>498.25</v>
+        <v>1131.625</v>
       </c>
       <c r="Y68" t="n">
-        <v>147.125</v>
+        <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>757.5</v>
+        <v>1683.25</v>
       </c>
       <c r="AA68" t="n">
-        <v>1131.625</v>
+        <v>11723.25</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>12616.25</v>
       </c>
       <c r="AC68" t="n">
-        <v>1683.25</v>
+        <v>12512.375</v>
       </c>
       <c r="AD68" t="n">
-        <v>11723.25</v>
+        <v>4057.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>12616.25</v>
+        <v>3018.375</v>
       </c>
       <c r="AF68" t="n">
-        <v>12512.375</v>
+        <v>4520.625</v>
       </c>
       <c r="AG68" t="n">
-        <v>4057.5</v>
+        <v>64.375</v>
       </c>
       <c r="AH68" t="n">
-        <v>3018.375</v>
+        <v>35</v>
       </c>
       <c r="AI68" t="n">
-        <v>4520.625</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>64.375</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL68" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:35">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B69" t="n">
         <v>9366</v>
@@ -8693,84 +8072,75 @@
         <v>799.5</v>
       </c>
       <c r="N69" t="n">
-        <v>14698.25</v>
+        <v>14451.5</v>
       </c>
       <c r="O69" t="n">
-        <v>15200.125</v>
+        <v>13876.5</v>
       </c>
       <c r="P69" t="n">
-        <v>14768.375</v>
+        <v>14978.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>14451.5</v>
+        <v>14911.625</v>
       </c>
       <c r="R69" t="n">
-        <v>13876.5</v>
+        <v>9544.875</v>
       </c>
       <c r="S69" t="n">
-        <v>14978.75</v>
+        <v>10171</v>
       </c>
       <c r="T69" t="n">
-        <v>14911.625</v>
+        <v>9368.75</v>
       </c>
       <c r="U69" t="n">
-        <v>9544.875</v>
+        <v>6161</v>
       </c>
       <c r="V69" t="n">
-        <v>10171</v>
+        <v>6466.75</v>
       </c>
       <c r="W69" t="n">
-        <v>9368.75</v>
+        <v>6470.25</v>
       </c>
       <c r="X69" t="n">
-        <v>6161</v>
+        <v>2250.625</v>
       </c>
       <c r="Y69" t="n">
-        <v>6466.75</v>
+        <v>1198.75</v>
       </c>
       <c r="Z69" t="n">
-        <v>6470.25</v>
+        <v>1446.25</v>
       </c>
       <c r="AA69" t="n">
-        <v>2250.625</v>
+        <v>14196</v>
       </c>
       <c r="AB69" t="n">
-        <v>1198.75</v>
+        <v>14785.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>1446.25</v>
+        <v>14866.375</v>
       </c>
       <c r="AD69" t="n">
-        <v>14196</v>
+        <v>2462.625</v>
       </c>
       <c r="AE69" t="n">
-        <v>14785.5</v>
+        <v>3646</v>
       </c>
       <c r="AF69" t="n">
-        <v>14866.375</v>
+        <v>3039.625</v>
       </c>
       <c r="AG69" t="n">
-        <v>2462.625</v>
+        <v>11229.375</v>
       </c>
       <c r="AH69" t="n">
-        <v>3646</v>
+        <v>10627.375</v>
       </c>
       <c r="AI69" t="n">
-        <v>3039.625</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>11229.375</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>10627.375</v>
-      </c>
-      <c r="AL69" t="n">
         <v>12482.875</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -8812,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>28.125</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -8821,40 +8191,40 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U70" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>2163</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>2528.375</v>
       </c>
       <c r="Z70" t="n">
-        <v>0</v>
+        <v>3231.75</v>
       </c>
       <c r="AA70" t="n">
-        <v>2163</v>
+        <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>2528.375</v>
+        <v>0</v>
       </c>
       <c r="AC70" t="n">
-        <v>3231.75</v>
+        <v>0</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -8874,19 +8244,10 @@
       <c r="AI70" t="n">
         <v>0</v>
       </c>
-      <c r="AJ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:35">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B71" t="n">
         <v>413.625</v>
@@ -8925,84 +8286,75 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1277.75</v>
+        <v>792.5</v>
       </c>
       <c r="O71" t="n">
-        <v>1561.75</v>
+        <v>2493.5</v>
       </c>
       <c r="P71" t="n">
-        <v>1983.75</v>
+        <v>113.625</v>
       </c>
       <c r="Q71" t="n">
-        <v>792.5</v>
+        <v>612.75</v>
       </c>
       <c r="R71" t="n">
-        <v>2493.5</v>
+        <v>1.25</v>
       </c>
       <c r="S71" t="n">
-        <v>113.625</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>612.75</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>41.625</v>
       </c>
       <c r="Y71" t="n">
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AA71" t="n">
-        <v>41.625</v>
+        <v>1352.625</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>1956.375</v>
       </c>
       <c r="AC71" t="n">
+        <v>1715.625</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH71" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD71" t="n">
-        <v>1352.625</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1956.375</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>1715.625</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>52.25</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
       <c r="AI71" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AL71" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:35">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B72" t="n">
         <v>831.75</v>
@@ -9041,84 +8393,75 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>67</v>
+        <v>1.5</v>
       </c>
       <c r="O72" t="n">
-        <v>327.25</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>217.125</v>
+        <v>72.375</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.5</v>
+        <v>15.25</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>91.625</v>
       </c>
       <c r="S72" t="n">
-        <v>72.375</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>15.25</v>
+        <v>247.625</v>
       </c>
       <c r="U72" t="n">
-        <v>91.625</v>
+        <v>0</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>247.625</v>
+        <v>47.875</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>308.25</v>
       </c>
       <c r="Y72" t="n">
         <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>47.875</v>
+        <v>240.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>308.25</v>
+        <v>0</v>
       </c>
       <c r="AB72" t="n">
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>240.5</v>
+        <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>0</v>
+        <v>394.625</v>
       </c>
       <c r="AE72" t="n">
         <v>0</v>
       </c>
       <c r="AF72" t="n">
-        <v>0</v>
+        <v>417.125</v>
       </c>
       <c r="AG72" t="n">
-        <v>394.625</v>
+        <v>53</v>
       </c>
       <c r="AH72" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI72" t="n">
-        <v>417.125</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>53</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AL72" t="n">
         <v>16.125</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:35">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B73" t="n">
         <v>655.375</v>
@@ -9157,84 +8500,75 @@
         <v>1.5</v>
       </c>
       <c r="N73" t="n">
-        <v>16.25</v>
+        <v>143.625</v>
       </c>
       <c r="O73" t="n">
-        <v>230.5</v>
+        <v>64.25</v>
       </c>
       <c r="P73" t="n">
-        <v>177.75</v>
+        <v>741.875</v>
       </c>
       <c r="Q73" t="n">
-        <v>143.625</v>
+        <v>356.625</v>
       </c>
       <c r="R73" t="n">
-        <v>64.25</v>
+        <v>594.25</v>
       </c>
       <c r="S73" t="n">
-        <v>741.875</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>356.625</v>
+        <v>461.375</v>
       </c>
       <c r="U73" t="n">
-        <v>594.25</v>
+        <v>221.375</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="W73" t="n">
-        <v>461.375</v>
+        <v>584.75</v>
       </c>
       <c r="X73" t="n">
-        <v>221.375</v>
+        <v>926.75</v>
       </c>
       <c r="Y73" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Z73" t="n">
-        <v>584.75</v>
+        <v>677.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>926.75</v>
+        <v>0.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>1</v>
+        <v>111.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>677.5</v>
+        <v>59.75</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.5</v>
+        <v>460.375</v>
       </c>
       <c r="AE73" t="n">
-        <v>111.5</v>
+        <v>0</v>
       </c>
       <c r="AF73" t="n">
-        <v>59.75</v>
+        <v>500.75</v>
       </c>
       <c r="AG73" t="n">
-        <v>460.375</v>
+        <v>87.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>89.25</v>
       </c>
       <c r="AI73" t="n">
-        <v>500.75</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>89.25</v>
-      </c>
-      <c r="AL73" t="n">
         <v>73.625</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:35">
       <c r="A74" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B74" t="n">
         <v>292.25</v>
@@ -9273,84 +8607,75 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="O74" t="n">
-        <v>347.5</v>
+        <v>0.125</v>
       </c>
       <c r="P74" t="n">
-        <v>266</v>
+        <v>681</v>
       </c>
       <c r="Q74" t="n">
-        <v>63</v>
+        <v>108.125</v>
       </c>
       <c r="R74" t="n">
-        <v>0.125</v>
+        <v>280.75</v>
       </c>
       <c r="S74" t="n">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>108.125</v>
+        <v>304</v>
       </c>
       <c r="U74" t="n">
-        <v>280.75</v>
+        <v>14.5</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>304</v>
+        <v>290.5</v>
       </c>
       <c r="X74" t="n">
-        <v>14.5</v>
+        <v>376.375</v>
       </c>
       <c r="Y74" t="n">
         <v>0</v>
       </c>
       <c r="Z74" t="n">
-        <v>290.5</v>
+        <v>230.375</v>
       </c>
       <c r="AA74" t="n">
-        <v>376.375</v>
+        <v>0</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>188.125</v>
       </c>
       <c r="AC74" t="n">
-        <v>230.375</v>
+        <v>1.5</v>
       </c>
       <c r="AD74" t="n">
-        <v>0</v>
+        <v>446.75</v>
       </c>
       <c r="AE74" t="n">
-        <v>188.125</v>
+        <v>1.25</v>
       </c>
       <c r="AF74" t="n">
-        <v>1.5</v>
+        <v>412.75</v>
       </c>
       <c r="AG74" t="n">
-        <v>446.75</v>
+        <v>157.25</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.25</v>
+        <v>16.625</v>
       </c>
       <c r="AI74" t="n">
-        <v>412.75</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>157.25</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>16.625</v>
-      </c>
-      <c r="AL74" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:35">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B75" t="n">
         <v>0.5</v>
@@ -9389,25 +8714,25 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P75" t="n">
-        <v>1.25</v>
+        <v>35.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>35.25</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>15.125</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -9416,57 +8741,48 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>15.125</v>
+        <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y75" t="n">
         <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AA75" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB75" t="n">
         <v>0</v>
       </c>
       <c r="AC75" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE75" t="n">
         <v>0</v>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AG75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>20.625</v>
       </c>
       <c r="AI75" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>20.625</v>
-      </c>
-      <c r="AL75" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:35">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B76" t="n">
         <v>6034.375</v>
@@ -9505,84 +8821,75 @@
         <v>628.625</v>
       </c>
       <c r="N76" t="n">
-        <v>11945.375</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>12867.125</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>12927.625</v>
+        <v>85.875</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>4519.875</v>
       </c>
       <c r="S76" t="n">
-        <v>85.875</v>
+        <v>4106.375</v>
       </c>
       <c r="T76" t="n">
-        <v>18</v>
+        <v>4394.875</v>
       </c>
       <c r="U76" t="n">
-        <v>4519.875</v>
+        <v>1694.25</v>
       </c>
       <c r="V76" t="n">
-        <v>4106.375</v>
+        <v>2480.5</v>
       </c>
       <c r="W76" t="n">
-        <v>4394.875</v>
+        <v>1681.625</v>
       </c>
       <c r="X76" t="n">
-        <v>1694.25</v>
+        <v>3152.875</v>
       </c>
       <c r="Y76" t="n">
-        <v>2480.5</v>
+        <v>1566.875</v>
       </c>
       <c r="Z76" t="n">
-        <v>1681.625</v>
+        <v>2234.75</v>
       </c>
       <c r="AA76" t="n">
-        <v>3152.875</v>
+        <v>9348.125</v>
       </c>
       <c r="AB76" t="n">
-        <v>1566.875</v>
+        <v>8354.25</v>
       </c>
       <c r="AC76" t="n">
-        <v>2234.75</v>
+        <v>9001.25</v>
       </c>
       <c r="AD76" t="n">
-        <v>9348.125</v>
+        <v>3264</v>
       </c>
       <c r="AE76" t="n">
-        <v>8354.25</v>
+        <v>4431.125</v>
       </c>
       <c r="AF76" t="n">
-        <v>9001.25</v>
+        <v>4012.125</v>
       </c>
       <c r="AG76" t="n">
-        <v>3264</v>
+        <v>4741.375</v>
       </c>
       <c r="AH76" t="n">
-        <v>4431.125</v>
+        <v>4686.625</v>
       </c>
       <c r="AI76" t="n">
-        <v>4012.125</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>4741.375</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>4686.625</v>
-      </c>
-      <c r="AL76" t="n">
         <v>5831.5</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:35">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B77" t="n">
         <v>7208</v>
@@ -9621,84 +8928,75 @@
         <v>171.75</v>
       </c>
       <c r="N77" t="n">
-        <v>12894.5</v>
+        <v>25.625</v>
       </c>
       <c r="O77" t="n">
-        <v>13082.875</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>13839.375</v>
+        <v>401.375</v>
       </c>
       <c r="Q77" t="n">
-        <v>25.625</v>
+        <v>246.375</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>2897.25</v>
       </c>
       <c r="S77" t="n">
-        <v>401.375</v>
+        <v>2490.75</v>
       </c>
       <c r="T77" t="n">
-        <v>246.375</v>
+        <v>2686.375</v>
       </c>
       <c r="U77" t="n">
-        <v>2897.25</v>
+        <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>2490.75</v>
+        <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>2686.375</v>
+        <v>1</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>2099.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>1197.25</v>
       </c>
       <c r="Z77" t="n">
-        <v>1</v>
+        <v>1885</v>
       </c>
       <c r="AA77" t="n">
-        <v>2099.75</v>
+        <v>0</v>
       </c>
       <c r="AB77" t="n">
-        <v>1197.25</v>
+        <v>129</v>
       </c>
       <c r="AC77" t="n">
-        <v>1885</v>
+        <v>0.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>7853.25</v>
       </c>
       <c r="AE77" t="n">
-        <v>129</v>
+        <v>7056.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>0.5</v>
+        <v>9345.25</v>
       </c>
       <c r="AG77" t="n">
-        <v>7853.25</v>
+        <v>9710.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>7056.5</v>
+        <v>9386.375</v>
       </c>
       <c r="AI77" t="n">
-        <v>9345.25</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>9710.5</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>9386.375</v>
-      </c>
-      <c r="AL77" t="n">
         <v>9972</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:35">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" t="n">
         <v>10000.5</v>
@@ -9737,84 +9035,75 @@
         <v>3046.625</v>
       </c>
       <c r="N78" t="n">
-        <v>7631.75</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>9904.125</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>10704.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>5879.5</v>
       </c>
       <c r="S78" t="n">
-        <v>4.5</v>
+        <v>6417.375</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>7359.5</v>
       </c>
       <c r="U78" t="n">
-        <v>5879.5</v>
+        <v>5622.5</v>
       </c>
       <c r="V78" t="n">
-        <v>6417.375</v>
+        <v>5223.5</v>
       </c>
       <c r="W78" t="n">
-        <v>7359.5</v>
+        <v>5707.625</v>
       </c>
       <c r="X78" t="n">
-        <v>5622.5</v>
+        <v>5429.75</v>
       </c>
       <c r="Y78" t="n">
-        <v>5223.5</v>
+        <v>5306.375</v>
       </c>
       <c r="Z78" t="n">
-        <v>5707.625</v>
+        <v>6192.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>5429.75</v>
+        <v>11700.75</v>
       </c>
       <c r="AB78" t="n">
-        <v>5306.375</v>
+        <v>12828.875</v>
       </c>
       <c r="AC78" t="n">
-        <v>6192.5</v>
+        <v>12474.875</v>
       </c>
       <c r="AD78" t="n">
-        <v>11700.75</v>
+        <v>10135.625</v>
       </c>
       <c r="AE78" t="n">
-        <v>12828.875</v>
+        <v>10211.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>12474.875</v>
+        <v>10923.75</v>
       </c>
       <c r="AG78" t="n">
-        <v>10135.625</v>
+        <v>6142.375</v>
       </c>
       <c r="AH78" t="n">
-        <v>10211.5</v>
+        <v>5795.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>10923.75</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>6142.375</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>5795.5</v>
-      </c>
-      <c r="AL78" t="n">
         <v>5877.125</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:35">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B79" t="n">
         <v>74.375</v>
@@ -9856,81 +9145,72 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>22.875</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>144.625</v>
       </c>
       <c r="S79" t="n">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>249.75</v>
       </c>
       <c r="U79" t="n">
-        <v>144.625</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>249.75</v>
+        <v>0.875</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>79.375</v>
       </c>
       <c r="Y79" t="n">
         <v>0</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.875</v>
+        <v>5.5</v>
       </c>
       <c r="AA79" t="n">
-        <v>79.375</v>
+        <v>4895.375</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>5460.75</v>
       </c>
       <c r="AC79" t="n">
-        <v>5.5</v>
+        <v>4955.375</v>
       </c>
       <c r="AD79" t="n">
-        <v>4895.375</v>
+        <v>473.375</v>
       </c>
       <c r="AE79" t="n">
-        <v>5460.75</v>
+        <v>0</v>
       </c>
       <c r="AF79" t="n">
-        <v>4955.375</v>
+        <v>345</v>
       </c>
       <c r="AG79" t="n">
-        <v>473.375</v>
+        <v>0</v>
       </c>
       <c r="AH79" t="n">
         <v>0</v>
       </c>
       <c r="AI79" t="n">
-        <v>345</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:35">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -9969,84 +9249,75 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="S80" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="U80" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>281.5</v>
       </c>
       <c r="Y80" t="n">
         <v>0</v>
       </c>
       <c r="Z80" t="n">
-        <v>0</v>
+        <v>133.75</v>
       </c>
       <c r="AA80" t="n">
-        <v>281.5</v>
+        <v>0</v>
       </c>
       <c r="AB80" t="n">
         <v>0</v>
       </c>
       <c r="AC80" t="n">
-        <v>133.75</v>
+        <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AE80" t="n">
         <v>0</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AH80" t="n">
         <v>0</v>
       </c>
       <c r="AI80" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:35">
       <c r="A81" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B81" t="n">
         <v>11.25</v>
@@ -10085,34 +9356,34 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O81" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>10.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="S81" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U81" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>19</v>
+        <v>4.625</v>
       </c>
       <c r="X81" t="n">
         <v>0</v>
@@ -10121,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="Z81" t="n">
-        <v>4.625</v>
+        <v>0.25</v>
       </c>
       <c r="AA81" t="n">
         <v>0</v>
@@ -10130,39 +9401,30 @@
         <v>0</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD81" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE81" t="n">
         <v>0</v>
       </c>
       <c r="AF81" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG81" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH81" t="n">
         <v>0</v>
       </c>
       <c r="AI81" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:35">
       <c r="A82" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B82" t="n">
         <v>586.875</v>
@@ -10201,84 +9463,75 @@
         <v>7711.75</v>
       </c>
       <c r="N82" t="n">
-        <v>14404.375</v>
+        <v>13024.125</v>
       </c>
       <c r="O82" t="n">
-        <v>14964</v>
+        <v>12982</v>
       </c>
       <c r="P82" t="n">
-        <v>14415.625</v>
+        <v>13126.375</v>
       </c>
       <c r="Q82" t="n">
-        <v>13024.125</v>
+        <v>3099.625</v>
       </c>
       <c r="R82" t="n">
-        <v>12982</v>
+        <v>381.125</v>
       </c>
       <c r="S82" t="n">
-        <v>13126.375</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>3099.625</v>
+        <v>416.75</v>
       </c>
       <c r="U82" t="n">
-        <v>381.125</v>
+        <v>5938.25</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>5152.375</v>
       </c>
       <c r="W82" t="n">
-        <v>416.75</v>
+        <v>6313.875</v>
       </c>
       <c r="X82" t="n">
-        <v>5938.25</v>
+        <v>736.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>5152.375</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>6313.875</v>
+        <v>1090.125</v>
       </c>
       <c r="AA82" t="n">
-        <v>736.5</v>
+        <v>13039.875</v>
       </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>13592.125</v>
       </c>
       <c r="AC82" t="n">
-        <v>1090.125</v>
+        <v>12934.875</v>
       </c>
       <c r="AD82" t="n">
-        <v>13039.875</v>
+        <v>496.875</v>
       </c>
       <c r="AE82" t="n">
-        <v>13592.125</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="n">
-        <v>12934.875</v>
+        <v>254</v>
       </c>
       <c r="AG82" t="n">
-        <v>496.875</v>
+        <v>9428.375</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>9249.125</v>
       </c>
       <c r="AI82" t="n">
-        <v>254</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>9428.375</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>9249.125</v>
-      </c>
-      <c r="AL82" t="n">
         <v>8616.25</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:35">
       <c r="A83" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B83" t="n">
         <v>9875.75</v>
@@ -10317,84 +9570,75 @@
         <v>6354.875</v>
       </c>
       <c r="N83" t="n">
-        <v>12113.125</v>
+        <v>5.25</v>
       </c>
       <c r="O83" t="n">
-        <v>11954.125</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>12082.625</v>
+        <v>274.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>8120.625</v>
       </c>
       <c r="S83" t="n">
-        <v>274.5</v>
+        <v>7279.875</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>8360.5</v>
       </c>
       <c r="U83" t="n">
-        <v>8120.625</v>
+        <v>5393.25</v>
       </c>
       <c r="V83" t="n">
-        <v>7279.875</v>
+        <v>5571.75</v>
       </c>
       <c r="W83" t="n">
-        <v>8360.5</v>
+        <v>6294.25</v>
       </c>
       <c r="X83" t="n">
-        <v>5393.25</v>
+        <v>9408.125</v>
       </c>
       <c r="Y83" t="n">
-        <v>5571.75</v>
+        <v>8940</v>
       </c>
       <c r="Z83" t="n">
-        <v>6294.25</v>
+        <v>8807.25</v>
       </c>
       <c r="AA83" t="n">
-        <v>9408.125</v>
+        <v>12104</v>
       </c>
       <c r="AB83" t="n">
-        <v>8940</v>
+        <v>13003.25</v>
       </c>
       <c r="AC83" t="n">
-        <v>8807.25</v>
+        <v>12790.375</v>
       </c>
       <c r="AD83" t="n">
-        <v>12104</v>
+        <v>6744.375</v>
       </c>
       <c r="AE83" t="n">
-        <v>13003.25</v>
+        <v>6225</v>
       </c>
       <c r="AF83" t="n">
-        <v>12790.375</v>
+        <v>6274.875</v>
       </c>
       <c r="AG83" t="n">
-        <v>6744.375</v>
+        <v>7599.125</v>
       </c>
       <c r="AH83" t="n">
-        <v>6225</v>
+        <v>7372.75</v>
       </c>
       <c r="AI83" t="n">
-        <v>6274.875</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>7599.125</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>7372.75</v>
-      </c>
-      <c r="AL83" t="n">
         <v>8191</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:35">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B84" t="n">
         <v>968.375</v>
@@ -10433,84 +9677,75 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>39</v>
+        <v>12.25</v>
       </c>
       <c r="O84" t="n">
-        <v>1381.875</v>
+        <v>1.75</v>
       </c>
       <c r="P84" t="n">
-        <v>807.5</v>
+        <v>487.375</v>
       </c>
       <c r="Q84" t="n">
-        <v>12.25</v>
+        <v>97</v>
       </c>
       <c r="R84" t="n">
-        <v>1.75</v>
+        <v>410.625</v>
       </c>
       <c r="S84" t="n">
-        <v>487.375</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>97</v>
+        <v>409.5</v>
       </c>
       <c r="U84" t="n">
-        <v>410.625</v>
+        <v>0.25</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>409.5</v>
+        <v>29.375</v>
       </c>
       <c r="X84" t="n">
-        <v>0.25</v>
+        <v>720.625</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>29.375</v>
+        <v>441.875</v>
       </c>
       <c r="AA84" t="n">
-        <v>720.625</v>
+        <v>3943.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>4958.25</v>
       </c>
       <c r="AC84" t="n">
-        <v>441.875</v>
+        <v>5581.75</v>
       </c>
       <c r="AD84" t="n">
-        <v>3943.5</v>
+        <v>762.375</v>
       </c>
       <c r="AE84" t="n">
-        <v>4958.25</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>5581.75</v>
+        <v>645.125</v>
       </c>
       <c r="AG84" t="n">
-        <v>762.375</v>
+        <v>8.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI84" t="n">
-        <v>645.125</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL84" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:35">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B85" t="n">
         <v>11952.25</v>
@@ -10549,84 +9784,75 @@
         <v>10455.375</v>
       </c>
       <c r="N85" t="n">
-        <v>16144</v>
+        <v>14061.625</v>
       </c>
       <c r="O85" t="n">
-        <v>16272.375</v>
+        <v>14004.75</v>
       </c>
       <c r="P85" t="n">
-        <v>15323.125</v>
+        <v>15073.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>14061.625</v>
+        <v>14489.75</v>
       </c>
       <c r="R85" t="n">
-        <v>14004.75</v>
+        <v>12785.125</v>
       </c>
       <c r="S85" t="n">
-        <v>15073.5</v>
+        <v>12085.875</v>
       </c>
       <c r="T85" t="n">
-        <v>14489.75</v>
+        <v>13149.375</v>
       </c>
       <c r="U85" t="n">
-        <v>12785.125</v>
+        <v>9278</v>
       </c>
       <c r="V85" t="n">
-        <v>12085.875</v>
+        <v>8527.5</v>
       </c>
       <c r="W85" t="n">
-        <v>13149.375</v>
+        <v>9371.25</v>
       </c>
       <c r="X85" t="n">
-        <v>9278</v>
+        <v>11336.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>8527.5</v>
+        <v>10094.75</v>
       </c>
       <c r="Z85" t="n">
-        <v>9371.25</v>
+        <v>11780.75</v>
       </c>
       <c r="AA85" t="n">
-        <v>11336.5</v>
+        <v>12694.875</v>
       </c>
       <c r="AB85" t="n">
-        <v>10094.75</v>
+        <v>13005.625</v>
       </c>
       <c r="AC85" t="n">
-        <v>11780.75</v>
+        <v>12736.125</v>
       </c>
       <c r="AD85" t="n">
-        <v>12694.875</v>
+        <v>12463</v>
       </c>
       <c r="AE85" t="n">
-        <v>13005.625</v>
+        <v>11963.875</v>
       </c>
       <c r="AF85" t="n">
-        <v>12736.125</v>
+        <v>13401.5</v>
       </c>
       <c r="AG85" t="n">
-        <v>12463</v>
+        <v>12244.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>11963.875</v>
+        <v>12058.625</v>
       </c>
       <c r="AI85" t="n">
-        <v>13401.5</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>12244.5</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>12058.625</v>
-      </c>
-      <c r="AL85" t="n">
         <v>12911.125</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:35">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B86" t="n">
         <v>1081.5</v>
@@ -10665,84 +9891,75 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.75</v>
+        <v>365.5</v>
       </c>
       <c r="O86" t="n">
-        <v>451.375</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>390.125</v>
+        <v>1165.375</v>
       </c>
       <c r="Q86" t="n">
-        <v>365.5</v>
+        <v>78</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1541.625</v>
       </c>
       <c r="S86" t="n">
-        <v>1165.375</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>78</v>
+        <v>1871.875</v>
       </c>
       <c r="U86" t="n">
-        <v>1541.625</v>
+        <v>312.25</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W86" t="n">
-        <v>1871.875</v>
+        <v>705</v>
       </c>
       <c r="X86" t="n">
-        <v>312.25</v>
+        <v>1449.625</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>705</v>
+        <v>1677.75</v>
       </c>
       <c r="AA86" t="n">
-        <v>1449.625</v>
+        <v>0</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>445.25</v>
       </c>
       <c r="AC86" t="n">
-        <v>1677.75</v>
+        <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>1085.875</v>
       </c>
       <c r="AE86" t="n">
-        <v>445.25</v>
+        <v>0</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>960.25</v>
       </c>
       <c r="AG86" t="n">
-        <v>1085.875</v>
+        <v>480.375</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="AI86" t="n">
-        <v>960.25</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>480.375</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL86" t="n">
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:35">
       <c r="A87" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B87" t="n">
         <v>1072.75</v>
@@ -10781,84 +9998,75 @@
         <v>89</v>
       </c>
       <c r="N87" t="n">
-        <v>241.75</v>
+        <v>1304.875</v>
       </c>
       <c r="O87" t="n">
-        <v>2109.875</v>
+        <v>146.75</v>
       </c>
       <c r="P87" t="n">
-        <v>2707.125</v>
+        <v>2009.375</v>
       </c>
       <c r="Q87" t="n">
-        <v>1304.875</v>
+        <v>763.25</v>
       </c>
       <c r="R87" t="n">
-        <v>146.75</v>
+        <v>66.375</v>
       </c>
       <c r="S87" t="n">
-        <v>2009.375</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>763.25</v>
+        <v>157.125</v>
       </c>
       <c r="U87" t="n">
-        <v>66.375</v>
+        <v>2050</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>893.875</v>
       </c>
       <c r="W87" t="n">
-        <v>157.125</v>
+        <v>2332.5</v>
       </c>
       <c r="X87" t="n">
-        <v>2050</v>
+        <v>478.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>893.875</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="n">
-        <v>2332.5</v>
+        <v>370</v>
       </c>
       <c r="AA87" t="n">
-        <v>478.5</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="AC87" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>841.25</v>
       </c>
       <c r="AE87" t="n">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>834.875</v>
       </c>
       <c r="AG87" t="n">
-        <v>841.25</v>
+        <v>803.75</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>423.625</v>
       </c>
       <c r="AI87" t="n">
-        <v>834.875</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>803.75</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>423.625</v>
-      </c>
-      <c r="AL87" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:35">
       <c r="A88" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B88" t="n">
         <v>106.625</v>
@@ -10897,84 +10105,75 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O88" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>15.5</v>
+        <v>170.75</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="S88" t="n">
-        <v>170.75</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>38.375</v>
       </c>
       <c r="U88" t="n">
-        <v>3.375</v>
+        <v>1.5</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>38.375</v>
+        <v>14.25</v>
       </c>
       <c r="X88" t="n">
-        <v>1.5</v>
+        <v>162.75</v>
       </c>
       <c r="Y88" t="n">
         <v>0</v>
       </c>
       <c r="Z88" t="n">
-        <v>14.25</v>
+        <v>73.625</v>
       </c>
       <c r="AA88" t="n">
-        <v>162.75</v>
+        <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88" t="n">
-        <v>73.625</v>
+        <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>145.375</v>
       </c>
       <c r="AE88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AG88" t="n">
-        <v>145.375</v>
+        <v>2.75</v>
       </c>
       <c r="AH88" t="n">
         <v>0</v>
       </c>
       <c r="AI88" t="n">
-        <v>72</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:35">
       <c r="A89" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B89" t="n">
         <v>6</v>
@@ -11013,84 +10212,75 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>7</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
         <v>0.25</v>
       </c>
-      <c r="P89" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>1</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0</v>
-      </c>
-      <c r="S89" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="T89" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="U89" t="n">
-        <v>5</v>
-      </c>
-      <c r="V89" t="n">
-        <v>0</v>
-      </c>
-      <c r="W89" t="n">
-        <v>7</v>
-      </c>
       <c r="X89" t="n">
-        <v>1.25</v>
+        <v>4.875</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
       </c>
       <c r="Z89" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>4.875</v>
+        <v>0</v>
       </c>
       <c r="AB89" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>17.125</v>
       </c>
       <c r="AG89" t="n">
-        <v>54.5</v>
+        <v>3.25</v>
       </c>
       <c r="AH89" t="n">
         <v>0</v>
       </c>
       <c r="AI89" t="n">
-        <v>17.125</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL89" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:35">
       <c r="A90" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B90" t="n">
         <v>635.875</v>
@@ -11129,84 +10319,75 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O90" t="n">
-        <v>12.125</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>23.5</v>
+        <v>179.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>737.5</v>
       </c>
       <c r="S90" t="n">
-        <v>179.75</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>1047.25</v>
       </c>
       <c r="U90" t="n">
-        <v>737.5</v>
+        <v>1.5</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
       </c>
       <c r="W90" t="n">
-        <v>1047.25</v>
+        <v>46.875</v>
       </c>
       <c r="X90" t="n">
-        <v>1.5</v>
+        <v>1063.75</v>
       </c>
       <c r="Y90" t="n">
         <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>46.875</v>
+        <v>1175</v>
       </c>
       <c r="AA90" t="n">
-        <v>1063.75</v>
+        <v>0</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="AC90" t="n">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>824.25</v>
       </c>
       <c r="AE90" t="n">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>966.125</v>
       </c>
       <c r="AG90" t="n">
-        <v>824.25</v>
+        <v>14.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>0</v>
+        <v>2.875</v>
       </c>
       <c r="AI90" t="n">
-        <v>966.125</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>2.875</v>
-      </c>
-      <c r="AL90" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:35">
       <c r="A91" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B91" t="n">
         <v>895.75</v>
@@ -11245,84 +10426,75 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>188.5</v>
       </c>
       <c r="O91" t="n">
-        <v>354.625</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>189.125</v>
+        <v>780.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>188.5</v>
+        <v>42</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>1006.125</v>
       </c>
       <c r="S91" t="n">
-        <v>780.5</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>42</v>
+        <v>881.5</v>
       </c>
       <c r="U91" t="n">
-        <v>1006.125</v>
+        <v>451</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>881.5</v>
+        <v>1253.375</v>
       </c>
       <c r="X91" t="n">
-        <v>451</v>
+        <v>833.875</v>
       </c>
       <c r="Y91" t="n">
         <v>0</v>
       </c>
       <c r="Z91" t="n">
-        <v>1253.375</v>
+        <v>3245.625</v>
       </c>
       <c r="AA91" t="n">
-        <v>833.875</v>
+        <v>0</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>218.125</v>
       </c>
       <c r="AC91" t="n">
-        <v>3245.625</v>
+        <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="AE91" t="n">
-        <v>218.125</v>
+        <v>0</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>539.75</v>
       </c>
       <c r="AG91" t="n">
-        <v>745</v>
+        <v>433.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>219.875</v>
       </c>
       <c r="AI91" t="n">
-        <v>539.75</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>433.5</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>219.875</v>
-      </c>
-      <c r="AL91" t="n">
         <v>63.75</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:35">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" t="n">
         <v>1122.125</v>
@@ -11361,84 +10533,75 @@
         <v>41</v>
       </c>
       <c r="N92" t="n">
-        <v>3869</v>
+        <v>2044.625</v>
       </c>
       <c r="O92" t="n">
-        <v>3798.375</v>
+        <v>2116.75</v>
       </c>
       <c r="P92" t="n">
-        <v>4124.5</v>
+        <v>1189.875</v>
       </c>
       <c r="Q92" t="n">
-        <v>2044.625</v>
+        <v>575</v>
       </c>
       <c r="R92" t="n">
-        <v>2116.75</v>
+        <v>819.125</v>
       </c>
       <c r="S92" t="n">
-        <v>1189.875</v>
+        <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>575</v>
+        <v>452.375</v>
       </c>
       <c r="U92" t="n">
-        <v>819.125</v>
+        <v>935.125</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>933.625</v>
       </c>
       <c r="W92" t="n">
-        <v>452.375</v>
+        <v>1331.75</v>
       </c>
       <c r="X92" t="n">
-        <v>935.125</v>
+        <v>941.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>933.625</v>
+        <v>0</v>
       </c>
       <c r="Z92" t="n">
-        <v>1331.75</v>
+        <v>844.625</v>
       </c>
       <c r="AA92" t="n">
-        <v>941.5</v>
+        <v>1532</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>3930.375</v>
       </c>
       <c r="AC92" t="n">
-        <v>844.625</v>
+        <v>1427.75</v>
       </c>
       <c r="AD92" t="n">
-        <v>1532</v>
+        <v>814.625</v>
       </c>
       <c r="AE92" t="n">
-        <v>3930.375</v>
+        <v>0</v>
       </c>
       <c r="AF92" t="n">
-        <v>1427.75</v>
+        <v>787.625</v>
       </c>
       <c r="AG92" t="n">
-        <v>814.625</v>
+        <v>3196.375</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>3307.25</v>
       </c>
       <c r="AI92" t="n">
-        <v>787.625</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>3196.375</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>3307.25</v>
-      </c>
-      <c r="AL92" t="n">
         <v>2613.75</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:35">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B93" t="n">
         <v>10885.25</v>
@@ -11477,84 +10640,75 @@
         <v>7126.375</v>
       </c>
       <c r="N93" t="n">
-        <v>15948.25</v>
+        <v>166.125</v>
       </c>
       <c r="O93" t="n">
-        <v>16076.375</v>
+        <v>7</v>
       </c>
       <c r="P93" t="n">
-        <v>15766.5</v>
+        <v>959.5</v>
       </c>
       <c r="Q93" t="n">
-        <v>166.125</v>
+        <v>128.625</v>
       </c>
       <c r="R93" t="n">
-        <v>7</v>
+        <v>10765</v>
       </c>
       <c r="S93" t="n">
-        <v>959.5</v>
+        <v>9471.375</v>
       </c>
       <c r="T93" t="n">
-        <v>128.625</v>
+        <v>10806.875</v>
       </c>
       <c r="U93" t="n">
-        <v>10765</v>
+        <v>8448.875</v>
       </c>
       <c r="V93" t="n">
-        <v>9471.375</v>
+        <v>7523.5</v>
       </c>
       <c r="W93" t="n">
-        <v>10806.875</v>
+        <v>8266.625</v>
       </c>
       <c r="X93" t="n">
-        <v>8448.875</v>
+        <v>10859.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>7523.5</v>
+        <v>9925.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>8266.625</v>
+        <v>9848.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>10859.5</v>
+        <v>14778</v>
       </c>
       <c r="AB93" t="n">
-        <v>9925.5</v>
+        <v>14692.875</v>
       </c>
       <c r="AC93" t="n">
-        <v>9848.5</v>
+        <v>15504.25</v>
       </c>
       <c r="AD93" t="n">
-        <v>14778</v>
+        <v>11948.375</v>
       </c>
       <c r="AE93" t="n">
-        <v>14692.875</v>
+        <v>11025.625</v>
       </c>
       <c r="AF93" t="n">
-        <v>15504.25</v>
+        <v>11867.125</v>
       </c>
       <c r="AG93" t="n">
-        <v>11948.375</v>
+        <v>12047</v>
       </c>
       <c r="AH93" t="n">
-        <v>11025.625</v>
+        <v>11332.875</v>
       </c>
       <c r="AI93" t="n">
-        <v>11867.125</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>12047</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>11332.875</v>
-      </c>
-      <c r="AL93" t="n">
         <v>12408.5</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:35">
       <c r="A94" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B94" t="n">
         <v>2131.625</v>
@@ -11593,84 +10747,75 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O94" t="n">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>18.75</v>
+        <v>222.125</v>
       </c>
       <c r="Q94" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>3531.25</v>
       </c>
       <c r="S94" t="n">
-        <v>222.125</v>
+        <v>3421.875</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>3642.875</v>
       </c>
       <c r="U94" t="n">
-        <v>3531.25</v>
+        <v>0.5</v>
       </c>
       <c r="V94" t="n">
-        <v>3421.875</v>
+        <v>0</v>
       </c>
       <c r="W94" t="n">
-        <v>3642.875</v>
+        <v>36.5</v>
       </c>
       <c r="X94" t="n">
-        <v>0.5</v>
+        <v>3675.125</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>2958.625</v>
       </c>
       <c r="Z94" t="n">
-        <v>36.5</v>
+        <v>9545.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>3675.125</v>
+        <v>0</v>
       </c>
       <c r="AB94" t="n">
-        <v>2958.625</v>
+        <v>0</v>
       </c>
       <c r="AC94" t="n">
-        <v>9545.5</v>
+        <v>0</v>
       </c>
       <c r="AD94" t="n">
-        <v>0</v>
+        <v>1599.75</v>
       </c>
       <c r="AE94" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>1618.375</v>
       </c>
       <c r="AG94" t="n">
-        <v>1599.75</v>
+        <v>27.75</v>
       </c>
       <c r="AH94" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI94" t="n">
-        <v>1618.375</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>27.75</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL94" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:35">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B95" t="n">
         <v>6080.875</v>
@@ -11709,84 +10854,75 @@
         <v>2495</v>
       </c>
       <c r="N95" t="n">
-        <v>15400.25</v>
+        <v>14941.375</v>
       </c>
       <c r="O95" t="n">
-        <v>16260.125</v>
+        <v>14242.25</v>
       </c>
       <c r="P95" t="n">
-        <v>15655.375</v>
+        <v>15786.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>14941.375</v>
+        <v>14427.625</v>
       </c>
       <c r="R95" t="n">
-        <v>14242.25</v>
+        <v>9744.25</v>
       </c>
       <c r="S95" t="n">
-        <v>15786.75</v>
+        <v>8847.25</v>
       </c>
       <c r="T95" t="n">
-        <v>14427.625</v>
+        <v>10261.875</v>
       </c>
       <c r="U95" t="n">
-        <v>9744.25</v>
+        <v>2281.5</v>
       </c>
       <c r="V95" t="n">
-        <v>8847.25</v>
+        <v>1917</v>
       </c>
       <c r="W95" t="n">
-        <v>10261.875</v>
+        <v>1789.5</v>
       </c>
       <c r="X95" t="n">
-        <v>2281.5</v>
+        <v>10868.75</v>
       </c>
       <c r="Y95" t="n">
-        <v>1917</v>
+        <v>7755.25</v>
       </c>
       <c r="Z95" t="n">
-        <v>1789.5</v>
+        <v>9471.625</v>
       </c>
       <c r="AA95" t="n">
-        <v>10868.75</v>
+        <v>13966.375</v>
       </c>
       <c r="AB95" t="n">
-        <v>7755.25</v>
+        <v>15363.875</v>
       </c>
       <c r="AC95" t="n">
-        <v>9471.625</v>
+        <v>14475.75</v>
       </c>
       <c r="AD95" t="n">
-        <v>13966.375</v>
+        <v>1650.625</v>
       </c>
       <c r="AE95" t="n">
-        <v>15363.875</v>
+        <v>37</v>
       </c>
       <c r="AF95" t="n">
-        <v>14475.75</v>
+        <v>1498.375</v>
       </c>
       <c r="AG95" t="n">
-        <v>1650.625</v>
+        <v>11942.625</v>
       </c>
       <c r="AH95" t="n">
-        <v>37</v>
+        <v>11492.625</v>
       </c>
       <c r="AI95" t="n">
-        <v>1498.375</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>11942.625</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>11492.625</v>
-      </c>
-      <c r="AL95" t="n">
         <v>12105.375</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:35">
       <c r="A96" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B96" t="n">
         <v>906.625</v>
@@ -11825,84 +10961,75 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>21.125</v>
       </c>
       <c r="O96" t="n">
-        <v>43.875</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>50</v>
+        <v>106.375</v>
       </c>
       <c r="Q96" t="n">
-        <v>21.125</v>
+        <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>397.375</v>
       </c>
       <c r="S96" t="n">
-        <v>106.375</v>
+        <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>240.25</v>
       </c>
       <c r="U96" t="n">
-        <v>397.375</v>
+        <v>24.125</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
       </c>
       <c r="W96" t="n">
-        <v>240.25</v>
+        <v>106.75</v>
       </c>
       <c r="X96" t="n">
-        <v>24.125</v>
+        <v>886</v>
       </c>
       <c r="Y96" t="n">
         <v>0</v>
       </c>
       <c r="Z96" t="n">
-        <v>106.75</v>
+        <v>270.125</v>
       </c>
       <c r="AA96" t="n">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="AB96" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC96" t="n">
-        <v>270.125</v>
+        <v>0</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>785.75</v>
       </c>
       <c r="AE96" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>570.375</v>
       </c>
       <c r="AG96" t="n">
-        <v>785.75</v>
+        <v>30.75</v>
       </c>
       <c r="AH96" t="n">
-        <v>0</v>
+        <v>12.875</v>
       </c>
       <c r="AI96" t="n">
-        <v>570.375</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>12.875</v>
-      </c>
-      <c r="AL96" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:35">
       <c r="A97" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B97" t="n">
         <v>1091.5</v>
@@ -11941,78 +11068,69 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>7</v>
+        <v>337.5</v>
       </c>
       <c r="O97" t="n">
-        <v>975.5</v>
+        <v>24</v>
       </c>
       <c r="P97" t="n">
-        <v>534.5</v>
+        <v>1330.375</v>
       </c>
       <c r="Q97" t="n">
-        <v>337.5</v>
+        <v>124.5</v>
       </c>
       <c r="R97" t="n">
-        <v>24</v>
+        <v>741.625</v>
       </c>
       <c r="S97" t="n">
-        <v>1330.375</v>
+        <v>0.25</v>
       </c>
       <c r="T97" t="n">
-        <v>124.5</v>
+        <v>794.375</v>
       </c>
       <c r="U97" t="n">
-        <v>741.625</v>
+        <v>743.75</v>
       </c>
       <c r="V97" t="n">
-        <v>0.25</v>
+        <v>5.75</v>
       </c>
       <c r="W97" t="n">
-        <v>794.375</v>
+        <v>1058.875</v>
       </c>
       <c r="X97" t="n">
-        <v>743.75</v>
+        <v>900.875</v>
       </c>
       <c r="Y97" t="n">
-        <v>5.75</v>
+        <v>1</v>
       </c>
       <c r="Z97" t="n">
-        <v>1058.875</v>
+        <v>1058.25</v>
       </c>
       <c r="AA97" t="n">
-        <v>900.875</v>
+        <v>0</v>
       </c>
       <c r="AB97" t="n">
-        <v>1</v>
+        <v>137.625</v>
       </c>
       <c r="AC97" t="n">
-        <v>1058.25</v>
+        <v>2.25</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>721.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>137.625</v>
+        <v>0</v>
       </c>
       <c r="AF97" t="n">
-        <v>2.25</v>
+        <v>744.75</v>
       </c>
       <c r="AG97" t="n">
-        <v>721.5</v>
+        <v>789.75</v>
       </c>
       <c r="AH97" t="n">
-        <v>0</v>
+        <v>543.125</v>
       </c>
       <c r="AI97" t="n">
-        <v>744.75</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>789.75</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>543.125</v>
-      </c>
-      <c r="AL97" t="n">
         <v>102</v>
       </c>
     </row>

--- a/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 1-.xlsx
+++ b/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 1-.xlsx
@@ -17,6 +17,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
+    <t>CFBP2957 replicate 1</t>
+  </si>
+  <si>
+    <t>CFBP2957 replicate 2</t>
+  </si>
+  <si>
+    <t>CFBP2957 replicate 3</t>
+  </si>
+  <si>
     <t>BA7 replicate 1</t>
   </si>
   <si>
@@ -33,15 +42,6 @@
   </si>
   <si>
     <t>BDBR229 replicate 3</t>
-  </si>
-  <si>
-    <t>CFBP2957 replicate 1</t>
-  </si>
-  <si>
-    <t>CFBP2957 replicate 2</t>
-  </si>
-  <si>
-    <t>CFBP2957 replicate 3</t>
   </si>
   <si>
     <t>GMI1000 replicate 1</t>
@@ -974,31 +974,31 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.125</v>
+      </c>
+      <c r="E3" t="n">
         <v>113.5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>291.25</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>43.375</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>5.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>187</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>20.625</v>
-      </c>
-      <c r="H3" t="n">
-        <v>92.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>610.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>22.125</v>
       </c>
       <c r="K3" t="n">
         <v>2.75</v>
@@ -1081,31 +1081,31 @@
         <v>35</v>
       </c>
       <c r="B4" t="n">
+        <v>2828.625</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2737.875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1804.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>2912.25</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>2886.5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="G4" t="n">
         <v>2850.5</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>2828.625</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2737.875</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1804.25</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>845.125</v>
@@ -1188,31 +1188,31 @@
         <v>36</v>
       </c>
       <c r="B5" t="n">
+        <v>9242.875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9227</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8405.25</v>
+      </c>
+      <c r="E5" t="n">
         <v>8889.75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>8536.625</v>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>9727.5</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>9242.875</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9227</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8405.25</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>7176.625</v>
@@ -1295,31 +1295,31 @@
         <v>37</v>
       </c>
       <c r="B6" t="n">
+        <v>3563.875</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3177.125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2062.625</v>
+      </c>
+      <c r="E6" t="n">
         <v>7627.375</v>
       </c>
-      <c r="C6" t="n">
+      <c r="F6" t="n">
         <v>8015.875</v>
       </c>
-      <c r="D6" t="n">
+      <c r="G6" t="n">
         <v>6767.25</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>5011.25</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>4191.75</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>5895.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3563.875</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3177.125</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2062.625</v>
       </c>
       <c r="K6" t="n">
         <v>6657.375</v>
@@ -1402,31 +1402,31 @@
         <v>38</v>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.5</v>
       </c>
-      <c r="C7" t="n">
+      <c r="F7" t="n">
         <v>1.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>5.75</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
         <v>3.25</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>3.75</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>5152.25</v>
@@ -1509,31 +1509,31 @@
         <v>39</v>
       </c>
       <c r="B8" t="n">
+        <v>9035.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8403.25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7965.875</v>
+      </c>
+      <c r="E8" t="n">
         <v>9458</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>11146.625</v>
       </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>12909.625</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>5245.625</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>4235.75</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>7083.75</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9035.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8403.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7965.875</v>
       </c>
       <c r="K8" t="n">
         <v>11748.375</v>
@@ -1616,31 +1616,31 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>500.25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>401.875</v>
+      </c>
+      <c r="E9" t="n">
         <v>8179</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="n">
         <v>7250.875</v>
       </c>
-      <c r="D9" t="n">
+      <c r="G9" t="n">
         <v>7799.125</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>267</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>286.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>630</v>
-      </c>
-      <c r="H9" t="n">
-        <v>337.75</v>
-      </c>
-      <c r="I9" t="n">
-        <v>500.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>401.875</v>
       </c>
       <c r="K9" t="n">
         <v>0.5</v>
@@ -1723,31 +1723,31 @@
         <v>41</v>
       </c>
       <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>3784.75</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="n">
         <v>3129.25</v>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>3477</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>7.5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>0.25</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>32.625</v>
-      </c>
-      <c r="H10" t="n">
-        <v>19</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1830,31 +1830,31 @@
         <v>42</v>
       </c>
       <c r="B11" t="n">
+        <v>9343.125</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9452.75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8957.375</v>
+      </c>
+      <c r="E11" t="n">
         <v>9190</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>9969.625</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
         <v>9533.375</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>0.5</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>0.5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9343.125</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9452.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8957.375</v>
       </c>
       <c r="K11" t="n">
         <v>10943.375</v>
@@ -1937,31 +1937,31 @@
         <v>43</v>
       </c>
       <c r="B12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>194</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
         <v>207.875</v>
       </c>
-      <c r="C12" t="n">
+      <c r="F12" t="n">
         <v>8.125</v>
       </c>
-      <c r="D12" t="n">
+      <c r="G12" t="n">
         <v>231.25</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>118.875</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>19.75</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>155.625</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I12" t="n">
-        <v>194</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>4.375</v>
@@ -2044,31 +2044,31 @@
         <v>44</v>
       </c>
       <c r="B13" t="n">
+        <v>536.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>693.375</v>
+      </c>
+      <c r="D13" t="n">
+        <v>308.375</v>
+      </c>
+      <c r="E13" t="n">
         <v>1047.75</v>
       </c>
-      <c r="C13" t="n">
+      <c r="F13" t="n">
         <v>1986.375</v>
       </c>
-      <c r="D13" t="n">
+      <c r="G13" t="n">
         <v>831</v>
       </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
         <v>343.5</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>415.125</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>347.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>536.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>693.375</v>
-      </c>
-      <c r="J13" t="n">
-        <v>308.375</v>
       </c>
       <c r="K13" t="n">
         <v>10429.25</v>
@@ -2151,31 +2151,31 @@
         <v>45</v>
       </c>
       <c r="B14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>514.625</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="n">
         <v>178.375</v>
       </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>527</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>25</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>3.25</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>54.625</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -2258,16 +2258,16 @@
         <v>46</v>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>1.25</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2365,31 +2365,31 @@
         <v>47</v>
       </c>
       <c r="B16" t="n">
+        <v>1483.125</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1117.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>896</v>
+      </c>
+      <c r="E16" t="n">
         <v>3389.5</v>
       </c>
-      <c r="C16" t="n">
+      <c r="F16" t="n">
         <v>3074.375</v>
       </c>
-      <c r="D16" t="n">
+      <c r="G16" t="n">
         <v>2245</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>8.25</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>41.625</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1483.125</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1117.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>896</v>
       </c>
       <c r="K16" t="n">
         <v>4195.125</v>
@@ -2472,25 +2472,25 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>24.25</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>3.75</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
         <v>0.25</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2579,31 +2579,31 @@
         <v>49</v>
       </c>
       <c r="B18" t="n">
+        <v>8359.75</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7628.125</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7212.25</v>
+      </c>
+      <c r="E18" t="n">
         <v>9345.75</v>
       </c>
-      <c r="C18" t="n">
+      <c r="F18" t="n">
         <v>8210.125</v>
       </c>
-      <c r="D18" t="n">
+      <c r="G18" t="n">
         <v>8341.125</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
-        <v>8359.75</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7628.125</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7212.25</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>13269.75</v>
@@ -2686,31 +2686,31 @@
         <v>50</v>
       </c>
       <c r="B19" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2104.375</v>
+      </c>
+      <c r="D19" t="n">
+        <v>945.625</v>
+      </c>
+      <c r="E19" t="n">
         <v>4991.375</v>
       </c>
-      <c r="C19" t="n">
+      <c r="F19" t="n">
         <v>4595.125</v>
       </c>
-      <c r="D19" t="n">
+      <c r="G19" t="n">
         <v>4031</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
-        <v>2166</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2104.375</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>945.625</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>3026.5</v>
@@ -2900,31 +2900,31 @@
         <v>52</v>
       </c>
       <c r="B21" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>46.375</v>
+      </c>
+      <c r="E21" t="n">
         <v>343.125</v>
       </c>
-      <c r="C21" t="n">
+      <c r="F21" t="n">
         <v>5.375</v>
       </c>
-      <c r="D21" t="n">
+      <c r="G21" t="n">
         <v>172.5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>29.875</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>50.25</v>
-      </c>
-      <c r="H21" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>46.375</v>
       </c>
       <c r="K21" t="n">
         <v>1.5</v>
@@ -3007,31 +3007,31 @@
         <v>53</v>
       </c>
       <c r="B22" t="n">
+        <v>524.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>392.375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>348.125</v>
+      </c>
+      <c r="E22" t="n">
         <v>122.875</v>
       </c>
-      <c r="C22" t="n">
+      <c r="F22" t="n">
         <v>65.5</v>
       </c>
-      <c r="D22" t="n">
+      <c r="G22" t="n">
         <v>60.375</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>30.75</v>
-      </c>
-      <c r="H22" t="n">
-        <v>524.25</v>
-      </c>
-      <c r="I22" t="n">
-        <v>392.375</v>
-      </c>
-      <c r="J22" t="n">
-        <v>348.125</v>
       </c>
       <c r="K22" t="n">
         <v>4541.75</v>
@@ -3114,31 +3114,31 @@
         <v>54</v>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>44.25</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>85.25</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>8.625</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3221,31 +3221,31 @@
         <v>55</v>
       </c>
       <c r="B24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>75.625</v>
       </c>
-      <c r="C24" t="n">
+      <c r="F24" t="n">
         <v>10.125</v>
       </c>
-      <c r="D24" t="n">
+      <c r="G24" t="n">
         <v>133.75</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>8</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
         <v>16</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>3380.25</v>
@@ -3328,31 +3328,31 @@
         <v>56</v>
       </c>
       <c r="B25" t="n">
+        <v>11540.25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11028.25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10507.25</v>
+      </c>
+      <c r="E25" t="n">
         <v>13380</v>
       </c>
-      <c r="C25" t="n">
+      <c r="F25" t="n">
         <v>12232.875</v>
       </c>
-      <c r="D25" t="n">
+      <c r="G25" t="n">
         <v>12781.25</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>7290.75</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>6622.625</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>9468.5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>11540.25</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11028.25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10507.25</v>
       </c>
       <c r="K25" t="n">
         <v>12777.75</v>
@@ -3435,31 +3435,31 @@
         <v>57</v>
       </c>
       <c r="B26" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>277.375</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>286</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>215.625</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>228.125</v>
-      </c>
-      <c r="H26" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0.25</v>
@@ -3649,31 +3649,31 @@
         <v>59</v>
       </c>
       <c r="B28" t="n">
+        <v>7179.625</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6388.625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5775.25</v>
+      </c>
+      <c r="E28" t="n">
         <v>10590</v>
       </c>
-      <c r="C28" t="n">
+      <c r="F28" t="n">
         <v>9863.125</v>
       </c>
-      <c r="D28" t="n">
+      <c r="G28" t="n">
         <v>10601.25</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>3018.25</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>1445.875</v>
       </c>
-      <c r="G28" t="n">
+      <c r="J28" t="n">
         <v>3601.125</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7179.625</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6388.625</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5775.25</v>
       </c>
       <c r="K28" t="n">
         <v>10239.375</v>
@@ -3756,31 +3756,31 @@
         <v>60</v>
       </c>
       <c r="B29" t="n">
+        <v>402.625</v>
+      </c>
+      <c r="C29" t="n">
+        <v>60.375</v>
+      </c>
+      <c r="D29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E29" t="n">
         <v>242.25</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
         <v>25.875</v>
       </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>239</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>297.375</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
         <v>11</v>
       </c>
-      <c r="G29" t="n">
+      <c r="J29" t="n">
         <v>325.125</v>
-      </c>
-      <c r="H29" t="n">
-        <v>402.625</v>
-      </c>
-      <c r="I29" t="n">
-        <v>60.375</v>
-      </c>
-      <c r="J29" t="n">
-        <v>18</v>
       </c>
       <c r="K29" t="n">
         <v>9.75</v>
@@ -3863,31 +3863,31 @@
         <v>61</v>
       </c>
       <c r="B30" t="n">
+        <v>5051.375</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4729.25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3715.625</v>
+      </c>
+      <c r="E30" t="n">
         <v>5379.5</v>
       </c>
-      <c r="C30" t="n">
+      <c r="F30" t="n">
         <v>4785.625</v>
       </c>
-      <c r="D30" t="n">
+      <c r="G30" t="n">
         <v>4938</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>782.625</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
         <v>332.75</v>
       </c>
-      <c r="G30" t="n">
+      <c r="J30" t="n">
         <v>1431.25</v>
-      </c>
-      <c r="H30" t="n">
-        <v>5051.375</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4729.25</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3715.625</v>
       </c>
       <c r="K30" t="n">
         <v>6859.25</v>
@@ -3970,22 +3970,22 @@
         <v>62</v>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
         <v>2.75</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.25</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -4077,31 +4077,31 @@
         <v>63</v>
       </c>
       <c r="B32" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
         <v>291.125</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
         <v>56</v>
       </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
         <v>276.875</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>108.5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>559</v>
@@ -4184,31 +4184,31 @@
         <v>64</v>
       </c>
       <c r="B33" t="n">
+        <v>2975.625</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2488.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2577.625</v>
+      </c>
+      <c r="E33" t="n">
         <v>4752.5</v>
       </c>
-      <c r="C33" t="n">
+      <c r="F33" t="n">
         <v>3301.25</v>
       </c>
-      <c r="D33" t="n">
+      <c r="G33" t="n">
         <v>3996.875</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" t="n">
-        <v>2975.625</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2488.5</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2577.625</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>3233.375</v>
@@ -4291,31 +4291,31 @@
         <v>65</v>
       </c>
       <c r="B34" t="n">
+        <v>9346.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8527.75</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8635.5</v>
+      </c>
+      <c r="E34" t="n">
         <v>9894.125</v>
       </c>
-      <c r="C34" t="n">
+      <c r="F34" t="n">
         <v>8830.25</v>
       </c>
-      <c r="D34" t="n">
+      <c r="G34" t="n">
         <v>9775.5</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9346.5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8527.75</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8635.5</v>
       </c>
       <c r="K34" t="n">
         <v>11422.875</v>
@@ -4398,31 +4398,31 @@
         <v>66</v>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>2.5</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>16</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.25</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -4505,31 +4505,31 @@
         <v>67</v>
       </c>
       <c r="B36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
         <v>39.5</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>49.375</v>
       </c>
-      <c r="E36" t="n">
+      <c r="H36" t="n">
         <v>11.5</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>27.75</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -4612,31 +4612,31 @@
         <v>68</v>
       </c>
       <c r="B37" t="n">
+        <v>45</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E37" t="n">
         <v>632.875</v>
       </c>
-      <c r="C37" t="n">
+      <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="D37" t="n">
+      <c r="G37" t="n">
         <v>732.375</v>
       </c>
-      <c r="E37" t="n">
+      <c r="H37" t="n">
         <v>765.25</v>
       </c>
-      <c r="F37" t="n">
+      <c r="I37" t="n">
         <v>0.25</v>
       </c>
-      <c r="G37" t="n">
+      <c r="J37" t="n">
         <v>657.25</v>
-      </c>
-      <c r="H37" t="n">
-        <v>45</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>32.5</v>
@@ -4719,31 +4719,31 @@
         <v>69</v>
       </c>
       <c r="B38" t="n">
+        <v>9910.875</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9281.875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8571.5</v>
+      </c>
+      <c r="E38" t="n">
         <v>13330.25</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>12309.625</v>
       </c>
-      <c r="D38" t="n">
+      <c r="G38" t="n">
         <v>13263.5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>5530.5</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
         <v>4700.625</v>
       </c>
-      <c r="G38" t="n">
+      <c r="J38" t="n">
         <v>7214.25</v>
-      </c>
-      <c r="H38" t="n">
-        <v>9910.875</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9281.875</v>
-      </c>
-      <c r="J38" t="n">
-        <v>8571.5</v>
       </c>
       <c r="K38" t="n">
         <v>13228.625</v>
@@ -4826,31 +4826,31 @@
         <v>70</v>
       </c>
       <c r="B39" t="n">
+        <v>222.375</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
         <v>3408.25</v>
       </c>
-      <c r="C39" t="n">
+      <c r="F39" t="n">
         <v>3025.125</v>
       </c>
-      <c r="D39" t="n">
+      <c r="G39" t="n">
         <v>3097.5</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.25</v>
-      </c>
-      <c r="H39" t="n">
-        <v>222.375</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4933,31 +4933,31 @@
         <v>71</v>
       </c>
       <c r="B40" t="n">
+        <v>219.875</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E40" t="n">
         <v>109.75</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>65.25</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" t="n">
-        <v>219.875</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -5147,31 +5147,31 @@
         <v>73</v>
       </c>
       <c r="B42" t="n">
+        <v>7785.875</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7567</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7255</v>
+      </c>
+      <c r="E42" t="n">
         <v>7417</v>
       </c>
-      <c r="C42" t="n">
+      <c r="F42" t="n">
         <v>6996.375</v>
       </c>
-      <c r="D42" t="n">
+      <c r="G42" t="n">
         <v>7459.75</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>1275.375</v>
       </c>
-      <c r="F42" t="n">
+      <c r="I42" t="n">
         <v>603.625</v>
       </c>
-      <c r="G42" t="n">
+      <c r="J42" t="n">
         <v>1817.5</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7785.875</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7567</v>
-      </c>
-      <c r="J42" t="n">
-        <v>7255</v>
       </c>
       <c r="K42" t="n">
         <v>9428.375</v>
@@ -5254,31 +5254,31 @@
         <v>74</v>
       </c>
       <c r="B43" t="n">
+        <v>10479.625</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9816.625</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9465.25</v>
+      </c>
+      <c r="E43" t="n">
         <v>8474.75</v>
       </c>
-      <c r="C43" t="n">
+      <c r="F43" t="n">
         <v>8209.75</v>
       </c>
-      <c r="D43" t="n">
+      <c r="G43" t="n">
         <v>8029</v>
       </c>
-      <c r="E43" t="n">
+      <c r="H43" t="n">
         <v>90.375</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>200.875</v>
-      </c>
-      <c r="H43" t="n">
-        <v>10479.625</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9816.625</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9465.25</v>
       </c>
       <c r="K43" t="n">
         <v>6770</v>
@@ -5361,25 +5361,25 @@
         <v>75</v>
       </c>
       <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>3737.125</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F44" t="n">
         <v>1682.625</v>
       </c>
-      <c r="D44" t="n">
+      <c r="G44" t="n">
         <v>3475.875</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -5474,16 +5474,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -5575,16 +5575,16 @@
         <v>77</v>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.125</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -5697,16 +5697,16 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.25</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -5789,31 +5789,31 @@
         <v>79</v>
       </c>
       <c r="B48" t="n">
+        <v>6717.875</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5599.375</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6180.375</v>
+      </c>
+      <c r="E48" t="n">
         <v>7570.875</v>
       </c>
-      <c r="C48" t="n">
+      <c r="F48" t="n">
         <v>7095</v>
       </c>
-      <c r="D48" t="n">
+      <c r="G48" t="n">
         <v>7251.5</v>
       </c>
-      <c r="E48" t="n">
+      <c r="H48" t="n">
         <v>2</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="n">
         <v>17.25</v>
       </c>
-      <c r="G48" t="n">
+      <c r="J48" t="n">
         <v>2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6717.875</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5599.375</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6180.375</v>
       </c>
       <c r="K48" t="n">
         <v>1318.5</v>
@@ -5896,31 +5896,31 @@
         <v>80</v>
       </c>
       <c r="B49" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D49" t="n">
+        <v>24</v>
+      </c>
+      <c r="E49" t="n">
         <v>653.875</v>
       </c>
-      <c r="C49" t="n">
+      <c r="F49" t="n">
         <v>49.625</v>
       </c>
-      <c r="D49" t="n">
+      <c r="G49" t="n">
         <v>634.125</v>
       </c>
-      <c r="E49" t="n">
+      <c r="H49" t="n">
         <v>465.75</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>497.375</v>
-      </c>
-      <c r="H49" t="n">
-        <v>54.75</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J49" t="n">
-        <v>24</v>
       </c>
       <c r="K49" t="n">
         <v>2.5</v>
@@ -6003,31 +6003,31 @@
         <v>81</v>
       </c>
       <c r="B50" t="n">
+        <v>11758.25</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12104.625</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11250.25</v>
+      </c>
+      <c r="E50" t="n">
         <v>13431.5</v>
       </c>
-      <c r="C50" t="n">
+      <c r="F50" t="n">
         <v>13610.75</v>
       </c>
-      <c r="D50" t="n">
+      <c r="G50" t="n">
         <v>12744</v>
       </c>
-      <c r="E50" t="n">
+      <c r="H50" t="n">
         <v>6704.125</v>
       </c>
-      <c r="F50" t="n">
+      <c r="I50" t="n">
         <v>6034.25</v>
       </c>
-      <c r="G50" t="n">
+      <c r="J50" t="n">
         <v>7347.5</v>
-      </c>
-      <c r="H50" t="n">
-        <v>11758.25</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12104.625</v>
-      </c>
-      <c r="J50" t="n">
-        <v>11250.25</v>
       </c>
       <c r="K50" t="n">
         <v>13584.75</v>
@@ -6110,31 +6110,31 @@
         <v>82</v>
       </c>
       <c r="B51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
         <v>1033.75</v>
       </c>
-      <c r="C51" t="n">
+      <c r="F51" t="n">
         <v>435.625</v>
       </c>
-      <c r="D51" t="n">
+      <c r="G51" t="n">
         <v>907.75</v>
       </c>
-      <c r="E51" t="n">
+      <c r="H51" t="n">
         <v>6</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>22.5</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>6.25</v>
@@ -6330,25 +6330,25 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.125</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -6431,31 +6431,31 @@
         <v>85</v>
       </c>
       <c r="B54" t="n">
+        <v>7727.75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6951.875</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6863</v>
+      </c>
+      <c r="E54" t="n">
         <v>4379.375</v>
       </c>
-      <c r="C54" t="n">
+      <c r="F54" t="n">
         <v>3870.75</v>
       </c>
-      <c r="D54" t="n">
+      <c r="G54" t="n">
         <v>4981.625</v>
       </c>
-      <c r="E54" t="n">
+      <c r="H54" t="n">
         <v>2639.5</v>
       </c>
-      <c r="F54" t="n">
+      <c r="I54" t="n">
         <v>1824.25</v>
       </c>
-      <c r="G54" t="n">
+      <c r="J54" t="n">
         <v>2739</v>
-      </c>
-      <c r="H54" t="n">
-        <v>7727.75</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6951.875</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6863</v>
       </c>
       <c r="K54" t="n">
         <v>6469.625</v>
@@ -6538,22 +6538,22 @@
         <v>86</v>
       </c>
       <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.25</v>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
         <v>10</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -6645,25 +6645,25 @@
         <v>87</v>
       </c>
       <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
         <v>109.625</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>262.75</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -6752,31 +6752,31 @@
         <v>88</v>
       </c>
       <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.75</v>
       </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>13.125</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.25</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -6859,31 +6859,31 @@
         <v>89</v>
       </c>
       <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>3.5</v>
       </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>4.25</v>
       </c>
-      <c r="E58" t="n">
+      <c r="H58" t="n">
         <v>0.25</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>1.75</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -6966,31 +6966,31 @@
         <v>90</v>
       </c>
       <c r="B59" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
         <v>73.75</v>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>160.875</v>
       </c>
-      <c r="E59" t="n">
+      <c r="H59" t="n">
         <v>3.75</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>25.25</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>91</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -7088,16 +7088,16 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>0.25</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -7180,31 +7180,31 @@
         <v>92</v>
       </c>
       <c r="B61" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E61" t="n">
         <v>24.375</v>
       </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>71.125</v>
       </c>
-      <c r="E61" t="n">
+      <c r="H61" t="n">
         <v>283.25</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>241.5</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.75</v>
       </c>
       <c r="K61" t="n">
         <v>1.75</v>
@@ -7287,31 +7287,31 @@
         <v>93</v>
       </c>
       <c r="B62" t="n">
+        <v>381.25</v>
+      </c>
+      <c r="C62" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>223.625</v>
+      </c>
+      <c r="E62" t="n">
         <v>319.375</v>
       </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>253.5</v>
       </c>
-      <c r="E62" t="n">
+      <c r="H62" t="n">
         <v>182.875</v>
       </c>
-      <c r="F62" t="n">
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="G62" t="n">
+      <c r="J62" t="n">
         <v>222.75</v>
-      </c>
-      <c r="H62" t="n">
-        <v>381.25</v>
-      </c>
-      <c r="I62" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>223.625</v>
       </c>
       <c r="K62" t="n">
         <v>12.75</v>
@@ -7394,31 +7394,31 @@
         <v>94</v>
       </c>
       <c r="B63" t="n">
+        <v>8099.5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7898.75</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7724.5</v>
+      </c>
+      <c r="E63" t="n">
         <v>7418.625</v>
       </c>
-      <c r="C63" t="n">
+      <c r="F63" t="n">
         <v>7983.375</v>
       </c>
-      <c r="D63" t="n">
+      <c r="G63" t="n">
         <v>8174.5</v>
       </c>
-      <c r="E63" t="n">
+      <c r="H63" t="n">
         <v>51.125</v>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>98.5</v>
-      </c>
-      <c r="H63" t="n">
-        <v>8099.5</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7898.75</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7724.5</v>
       </c>
       <c r="K63" t="n">
         <v>8917.75</v>
@@ -7501,31 +7501,31 @@
         <v>95</v>
       </c>
       <c r="B64" t="n">
+        <v>9864.875</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9158.375</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9049.25</v>
+      </c>
+      <c r="E64" t="n">
         <v>29.75</v>
       </c>
-      <c r="C64" t="n">
+      <c r="F64" t="n">
         <v>0.5</v>
       </c>
-      <c r="D64" t="n">
+      <c r="G64" t="n">
         <v>53.625</v>
       </c>
-      <c r="E64" t="n">
+      <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>9864.875</v>
-      </c>
       <c r="I64" t="n">
-        <v>9158.375</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>9049.25</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>891.25</v>
@@ -7608,31 +7608,31 @@
         <v>96</v>
       </c>
       <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
         <v>347.75</v>
       </c>
-      <c r="C65" t="n">
+      <c r="F65" t="n">
         <v>0.5</v>
       </c>
-      <c r="D65" t="n">
+      <c r="G65" t="n">
         <v>402.625</v>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>1.5</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -7715,31 +7715,31 @@
         <v>97</v>
       </c>
       <c r="B66" t="n">
+        <v>8545.625</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7545.625</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7615</v>
+      </c>
+      <c r="E66" t="n">
         <v>10430.5</v>
       </c>
-      <c r="C66" t="n">
+      <c r="F66" t="n">
         <v>9512.25</v>
       </c>
-      <c r="D66" t="n">
+      <c r="G66" t="n">
         <v>10572.5</v>
       </c>
-      <c r="E66" t="n">
+      <c r="H66" t="n">
         <v>4644.375</v>
       </c>
-      <c r="F66" t="n">
+      <c r="I66" t="n">
         <v>2911.875</v>
       </c>
-      <c r="G66" t="n">
+      <c r="J66" t="n">
         <v>5993.25</v>
-      </c>
-      <c r="H66" t="n">
-        <v>8545.625</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7545.625</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7615</v>
       </c>
       <c r="K66" t="n">
         <v>11415</v>
@@ -7822,31 +7822,31 @@
         <v>98</v>
       </c>
       <c r="B67" t="n">
+        <v>5356.25</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4641.25</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4493.5</v>
+      </c>
+      <c r="E67" t="n">
         <v>6878.75</v>
       </c>
-      <c r="C67" t="n">
+      <c r="F67" t="n">
         <v>5899.125</v>
       </c>
-      <c r="D67" t="n">
+      <c r="G67" t="n">
         <v>7087</v>
       </c>
-      <c r="E67" t="n">
+      <c r="H67" t="n">
         <v>2279.625</v>
       </c>
-      <c r="F67" t="n">
+      <c r="I67" t="n">
         <v>1335.25</v>
       </c>
-      <c r="G67" t="n">
+      <c r="J67" t="n">
         <v>2893.25</v>
-      </c>
-      <c r="H67" t="n">
-        <v>5356.25</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4641.25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4493.5</v>
       </c>
       <c r="K67" t="n">
         <v>3274.5</v>
@@ -7929,31 +7929,31 @@
         <v>99</v>
       </c>
       <c r="B68" t="n">
+        <v>1983.625</v>
+      </c>
+      <c r="C68" t="n">
+        <v>902.75</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1401.75</v>
+      </c>
+      <c r="E68" t="n">
         <v>3031.625</v>
       </c>
-      <c r="C68" t="n">
+      <c r="F68" t="n">
         <v>1983.625</v>
       </c>
-      <c r="D68" t="n">
+      <c r="G68" t="n">
         <v>3643.5</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
       <c r="H68" t="n">
-        <v>1983.625</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>902.75</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1401.75</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>886.25</v>
@@ -8036,31 +8036,31 @@
         <v>100</v>
       </c>
       <c r="B69" t="n">
+        <v>9509.125</v>
+      </c>
+      <c r="C69" t="n">
+        <v>9010.5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8764.25</v>
+      </c>
+      <c r="E69" t="n">
         <v>9366</v>
       </c>
-      <c r="C69" t="n">
+      <c r="F69" t="n">
         <v>8366.625</v>
       </c>
-      <c r="D69" t="n">
+      <c r="G69" t="n">
         <v>8095.5</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
       <c r="H69" t="n">
-        <v>9509.125</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>9010.5</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>8764.25</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>645</v>
@@ -8149,25 +8149,25 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>3.5</v>
       </c>
-      <c r="E70" t="n">
+      <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>2.75</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>2833.625</v>
@@ -8250,31 +8250,31 @@
         <v>102</v>
       </c>
       <c r="B71" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="E71" t="n">
         <v>413.625</v>
       </c>
-      <c r="C71" t="n">
+      <c r="F71" t="n">
         <v>2.375</v>
       </c>
-      <c r="D71" t="n">
+      <c r="G71" t="n">
         <v>337.25</v>
       </c>
-      <c r="E71" t="n">
+      <c r="H71" t="n">
         <v>15.75</v>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>46</v>
-      </c>
-      <c r="H71" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>20.25</v>
       </c>
       <c r="K71" t="n">
         <v>3.25</v>
@@ -8357,31 +8357,31 @@
         <v>103</v>
       </c>
       <c r="B72" t="n">
+        <v>146.25</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
         <v>831.75</v>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>453.875</v>
       </c>
-      <c r="E72" t="n">
+      <c r="H72" t="n">
         <v>179.25</v>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>213.5</v>
-      </c>
-      <c r="H72" t="n">
-        <v>146.25</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J72" t="n">
-        <v>10</v>
       </c>
       <c r="K72" t="n">
         <v>2</v>
@@ -8464,31 +8464,31 @@
         <v>104</v>
       </c>
       <c r="B73" t="n">
+        <v>324.125</v>
+      </c>
+      <c r="C73" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="D73" t="n">
+        <v>171</v>
+      </c>
+      <c r="E73" t="n">
         <v>655.375</v>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>647.125</v>
       </c>
-      <c r="E73" t="n">
+      <c r="H73" t="n">
         <v>388</v>
       </c>
-      <c r="F73" t="n">
+      <c r="I73" t="n">
         <v>0.25</v>
       </c>
-      <c r="G73" t="n">
+      <c r="J73" t="n">
         <v>396.75</v>
-      </c>
-      <c r="H73" t="n">
-        <v>324.125</v>
-      </c>
-      <c r="I73" t="n">
-        <v>72.25</v>
-      </c>
-      <c r="J73" t="n">
-        <v>171</v>
       </c>
       <c r="K73" t="n">
         <v>98.625</v>
@@ -8571,31 +8571,31 @@
         <v>105</v>
       </c>
       <c r="B74" t="n">
+        <v>627.875</v>
+      </c>
+      <c r="C74" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="D74" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="E74" t="n">
         <v>292.25</v>
       </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>336.75</v>
       </c>
-      <c r="E74" t="n">
+      <c r="H74" t="n">
         <v>285</v>
       </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>263.625</v>
-      </c>
-      <c r="H74" t="n">
-        <v>627.875</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J74" t="n">
-        <v>117.5</v>
       </c>
       <c r="K74" t="n">
         <v>147.25</v>
@@ -8678,31 +8678,31 @@
         <v>106</v>
       </c>
       <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.5</v>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>9.75</v>
       </c>
-      <c r="E75" t="n">
+      <c r="H75" t="n">
         <v>19</v>
       </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>34.5</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -8785,31 +8785,31 @@
         <v>107</v>
       </c>
       <c r="B76" t="n">
+        <v>3389.875</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3301.375</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1928.875</v>
+      </c>
+      <c r="E76" t="n">
         <v>6034.375</v>
       </c>
-      <c r="C76" t="n">
+      <c r="F76" t="n">
         <v>5519</v>
       </c>
-      <c r="D76" t="n">
+      <c r="G76" t="n">
         <v>6232.5</v>
       </c>
-      <c r="E76" t="n">
+      <c r="H76" t="n">
         <v>82.5</v>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
         <v>278.25</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3389.875</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3301.375</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1928.875</v>
       </c>
       <c r="K76" t="n">
         <v>1694.25</v>
@@ -8892,31 +8892,31 @@
         <v>108</v>
       </c>
       <c r="B77" t="n">
+        <v>4319.125</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3454.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3376.125</v>
+      </c>
+      <c r="E77" t="n">
         <v>7208</v>
       </c>
-      <c r="C77" t="n">
+      <c r="F77" t="n">
         <v>6967.25</v>
       </c>
-      <c r="D77" t="n">
+      <c r="G77" t="n">
         <v>7236.625</v>
       </c>
-      <c r="E77" t="n">
+      <c r="H77" t="n">
         <v>1.75</v>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
         <v>5</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4319.125</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3454.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3376.125</v>
       </c>
       <c r="K77" t="n">
         <v>364.5</v>
@@ -8999,31 +8999,31 @@
         <v>109</v>
       </c>
       <c r="B78" t="n">
+        <v>5053</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4487.25</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4687.375</v>
+      </c>
+      <c r="E78" t="n">
         <v>10000.5</v>
       </c>
-      <c r="C78" t="n">
+      <c r="F78" t="n">
         <v>9690.25</v>
       </c>
-      <c r="D78" t="n">
+      <c r="G78" t="n">
         <v>10291.875</v>
       </c>
-      <c r="E78" t="n">
+      <c r="H78" t="n">
         <v>2722</v>
       </c>
-      <c r="F78" t="n">
+      <c r="I78" t="n">
         <v>1420.625</v>
       </c>
-      <c r="G78" t="n">
+      <c r="J78" t="n">
         <v>3080.125</v>
-      </c>
-      <c r="H78" t="n">
-        <v>5053</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4487.25</v>
-      </c>
-      <c r="J78" t="n">
-        <v>4687.375</v>
       </c>
       <c r="K78" t="n">
         <v>7675.5</v>
@@ -9106,31 +9106,31 @@
         <v>110</v>
       </c>
       <c r="B79" t="n">
+        <v>145.25</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="E79" t="n">
         <v>74.375</v>
       </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>35.75</v>
       </c>
-      <c r="E79" t="n">
+      <c r="H79" t="n">
         <v>21.25</v>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>56.5</v>
-      </c>
-      <c r="H79" t="n">
-        <v>145.25</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>33.25</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -9213,31 +9213,31 @@
         <v>111</v>
       </c>
       <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
         <v>2.25</v>
       </c>
-      <c r="E80" t="n">
+      <c r="H80" t="n">
         <v>1.25</v>
       </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>7.5</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0.25</v>
@@ -9320,31 +9320,31 @@
         <v>112</v>
       </c>
       <c r="B81" t="n">
+        <v>6</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
         <v>11.25</v>
       </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>47.625</v>
       </c>
-      <c r="E81" t="n">
+      <c r="H81" t="n">
         <v>0.5</v>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>4.25</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -9427,31 +9427,31 @@
         <v>113</v>
       </c>
       <c r="B82" t="n">
+        <v>6693.625</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5169.75</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5537.125</v>
+      </c>
+      <c r="E82" t="n">
         <v>586.875</v>
       </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>287</v>
       </c>
-      <c r="E82" t="n">
+      <c r="H82" t="n">
         <v>853.75</v>
       </c>
-      <c r="F82" t="n">
+      <c r="I82" t="n">
         <v>49.375</v>
       </c>
-      <c r="G82" t="n">
+      <c r="J82" t="n">
         <v>2099.5</v>
-      </c>
-      <c r="H82" t="n">
-        <v>6693.625</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5169.75</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5537.125</v>
       </c>
       <c r="K82" t="n">
         <v>10714.875</v>
@@ -9534,31 +9534,31 @@
         <v>114</v>
       </c>
       <c r="B83" t="n">
+        <v>9485.25</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8908.625</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8598.125</v>
+      </c>
+      <c r="E83" t="n">
         <v>9875.75</v>
       </c>
-      <c r="C83" t="n">
+      <c r="F83" t="n">
         <v>7204.75</v>
       </c>
-      <c r="D83" t="n">
+      <c r="G83" t="n">
         <v>9322.75</v>
       </c>
-      <c r="E83" t="n">
+      <c r="H83" t="n">
         <v>5035.375</v>
       </c>
-      <c r="F83" t="n">
+      <c r="I83" t="n">
         <v>3439.25</v>
       </c>
-      <c r="G83" t="n">
+      <c r="J83" t="n">
         <v>6599.5</v>
-      </c>
-      <c r="H83" t="n">
-        <v>9485.25</v>
-      </c>
-      <c r="I83" t="n">
-        <v>8908.625</v>
-      </c>
-      <c r="J83" t="n">
-        <v>8598.125</v>
       </c>
       <c r="K83" t="n">
         <v>7870.75</v>
@@ -9641,31 +9641,31 @@
         <v>115</v>
       </c>
       <c r="B84" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>12</v>
+      </c>
+      <c r="E84" t="n">
         <v>968.375</v>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>920.5</v>
       </c>
-      <c r="E84" t="n">
+      <c r="H84" t="n">
         <v>630.5</v>
       </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
         <v>581.5</v>
-      </c>
-      <c r="H84" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>12</v>
       </c>
       <c r="K84" t="n">
         <v>2</v>
@@ -9748,31 +9748,31 @@
         <v>116</v>
       </c>
       <c r="B85" t="n">
+        <v>9858.375</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9046.25</v>
+      </c>
+      <c r="D85" t="n">
+        <v>8504</v>
+      </c>
+      <c r="E85" t="n">
         <v>11952.25</v>
       </c>
-      <c r="C85" t="n">
+      <c r="F85" t="n">
         <v>11936.75</v>
       </c>
-      <c r="D85" t="n">
+      <c r="G85" t="n">
         <v>12213.5</v>
       </c>
-      <c r="E85" t="n">
+      <c r="H85" t="n">
         <v>2088.625</v>
       </c>
-      <c r="F85" t="n">
+      <c r="I85" t="n">
         <v>4452.125</v>
       </c>
-      <c r="G85" t="n">
+      <c r="J85" t="n">
         <v>3778</v>
-      </c>
-      <c r="H85" t="n">
-        <v>9858.375</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9046.25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>8504</v>
       </c>
       <c r="K85" t="n">
         <v>12885.875</v>
@@ -9855,31 +9855,31 @@
         <v>117</v>
       </c>
       <c r="B86" t="n">
+        <v>897.875</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>222.625</v>
+      </c>
+      <c r="E86" t="n">
         <v>1081.5</v>
       </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>1105.5</v>
       </c>
-      <c r="E86" t="n">
+      <c r="H86" t="n">
         <v>972.125</v>
       </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>1009</v>
-      </c>
-      <c r="H86" t="n">
-        <v>897.875</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>222.625</v>
       </c>
       <c r="K86" t="n">
         <v>426.625</v>
@@ -9962,31 +9962,31 @@
         <v>118</v>
       </c>
       <c r="B87" t="n">
+        <v>2208.25</v>
+      </c>
+      <c r="C87" t="n">
+        <v>483.25</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1407.25</v>
+      </c>
+      <c r="E87" t="n">
         <v>1072.75</v>
       </c>
-      <c r="C87" t="n">
+      <c r="F87" t="n">
         <v>156.5</v>
       </c>
-      <c r="D87" t="n">
+      <c r="G87" t="n">
         <v>1118.125</v>
       </c>
-      <c r="E87" t="n">
+      <c r="H87" t="n">
         <v>188.5</v>
       </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
         <v>196.625</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2208.25</v>
-      </c>
-      <c r="I87" t="n">
-        <v>483.25</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1407.25</v>
       </c>
       <c r="K87" t="n">
         <v>956.25</v>
@@ -10069,31 +10069,31 @@
         <v>119</v>
       </c>
       <c r="B88" t="n">
+        <v>69</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E88" t="n">
         <v>106.625</v>
       </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>83.375</v>
       </c>
-      <c r="E88" t="n">
+      <c r="H88" t="n">
         <v>77.875</v>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>118.75</v>
-      </c>
-      <c r="H88" t="n">
-        <v>69</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.25</v>
       </c>
       <c r="K88" t="n">
         <v>7.75</v>
@@ -10176,31 +10176,31 @@
         <v>120</v>
       </c>
       <c r="B89" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
         <v>6</v>
       </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
         <v>7</v>
       </c>
-      <c r="E89" t="n">
+      <c r="H89" t="n">
         <v>28.75</v>
       </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>48.125</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
       </c>
       <c r="K89" t="n">
         <v>0.25</v>
@@ -10283,31 +10283,31 @@
         <v>121</v>
       </c>
       <c r="B90" t="n">
+        <v>108.875</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E90" t="n">
         <v>635.875</v>
       </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>545.75</v>
       </c>
-      <c r="E90" t="n">
+      <c r="H90" t="n">
         <v>122.625</v>
       </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>212.625</v>
-      </c>
-      <c r="H90" t="n">
-        <v>108.875</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.25</v>
       </c>
       <c r="K90" t="n">
         <v>45.375</v>
@@ -10390,31 +10390,31 @@
         <v>122</v>
       </c>
       <c r="B91" t="n">
+        <v>1266.875</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D91" t="n">
+        <v>427.875</v>
+      </c>
+      <c r="E91" t="n">
         <v>895.75</v>
       </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>973</v>
       </c>
-      <c r="E91" t="n">
+      <c r="H91" t="n">
         <v>830</v>
       </c>
-      <c r="F91" t="n">
+      <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="G91" t="n">
+      <c r="J91" t="n">
         <v>930.25</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1266.875</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="J91" t="n">
-        <v>427.875</v>
       </c>
       <c r="K91" t="n">
         <v>473.75</v>
@@ -10497,31 +10497,31 @@
         <v>123</v>
       </c>
       <c r="B92" t="n">
+        <v>608.625</v>
+      </c>
+      <c r="C92" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="D92" t="n">
+        <v>448</v>
+      </c>
+      <c r="E92" t="n">
         <v>1122.125</v>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>1002.75</v>
       </c>
-      <c r="E92" t="n">
+      <c r="H92" t="n">
         <v>624.125</v>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>622.875</v>
-      </c>
-      <c r="H92" t="n">
-        <v>608.625</v>
-      </c>
-      <c r="I92" t="n">
-        <v>37.25</v>
-      </c>
-      <c r="J92" t="n">
-        <v>448</v>
       </c>
       <c r="K92" t="n">
         <v>522.25</v>
@@ -10604,31 +10604,31 @@
         <v>124</v>
       </c>
       <c r="B93" t="n">
+        <v>10123.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>9106</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8470.375</v>
+      </c>
+      <c r="E93" t="n">
         <v>10885.25</v>
       </c>
-      <c r="C93" t="n">
+      <c r="F93" t="n">
         <v>9276.875</v>
       </c>
-      <c r="D93" t="n">
+      <c r="G93" t="n">
         <v>11190.75</v>
       </c>
-      <c r="E93" t="n">
+      <c r="H93" t="n">
         <v>4623.125</v>
       </c>
-      <c r="F93" t="n">
+      <c r="I93" t="n">
         <v>3051.375</v>
       </c>
-      <c r="G93" t="n">
+      <c r="J93" t="n">
         <v>6857.25</v>
-      </c>
-      <c r="H93" t="n">
-        <v>10123.5</v>
-      </c>
-      <c r="I93" t="n">
-        <v>9106</v>
-      </c>
-      <c r="J93" t="n">
-        <v>8470.375</v>
       </c>
       <c r="K93" t="n">
         <v>8716.875</v>
@@ -10711,31 +10711,31 @@
         <v>125</v>
       </c>
       <c r="B94" t="n">
+        <v>123</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E94" t="n">
         <v>2131.625</v>
       </c>
-      <c r="C94" t="n">
+      <c r="F94" t="n">
         <v>813.625</v>
       </c>
-      <c r="D94" t="n">
+      <c r="G94" t="n">
         <v>2174.75</v>
       </c>
-      <c r="E94" t="n">
+      <c r="H94" t="n">
         <v>676</v>
       </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>660.875</v>
-      </c>
-      <c r="H94" t="n">
-        <v>123</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.25</v>
       </c>
       <c r="K94" t="n">
         <v>37.5</v>
@@ -10818,31 +10818,31 @@
         <v>126</v>
       </c>
       <c r="B95" t="n">
+        <v>7692.25</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6785.25</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6676.625</v>
+      </c>
+      <c r="E95" t="n">
         <v>6080.875</v>
       </c>
-      <c r="C95" t="n">
+      <c r="F95" t="n">
         <v>6007.25</v>
       </c>
-      <c r="D95" t="n">
+      <c r="G95" t="n">
         <v>5870.125</v>
       </c>
-      <c r="E95" t="n">
+      <c r="H95" t="n">
         <v>814.75</v>
       </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="n">
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>832.625</v>
-      </c>
-      <c r="H95" t="n">
-        <v>7692.25</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6785.25</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6676.625</v>
       </c>
       <c r="K95" t="n">
         <v>9960.75</v>
@@ -10925,31 +10925,31 @@
         <v>127</v>
       </c>
       <c r="B96" t="n">
+        <v>90.25</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E96" t="n">
         <v>906.625</v>
       </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>978</v>
       </c>
-      <c r="E96" t="n">
+      <c r="H96" t="n">
         <v>968.5</v>
       </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>878</v>
-      </c>
-      <c r="H96" t="n">
-        <v>90.25</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>5.75</v>
       </c>
       <c r="K96" t="n">
         <v>11.25</v>
@@ -11032,31 +11032,31 @@
         <v>128</v>
       </c>
       <c r="B97" t="n">
+        <v>1173.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>808.75</v>
+      </c>
+      <c r="E97" t="n">
         <v>1091.5</v>
       </c>
-      <c r="C97" t="n">
+      <c r="F97" t="n">
         <v>4.75</v>
       </c>
-      <c r="D97" t="n">
+      <c r="G97" t="n">
         <v>1117.375</v>
       </c>
-      <c r="E97" t="n">
+      <c r="H97" t="n">
         <v>1087.375</v>
       </c>
-      <c r="F97" t="n">
+      <c r="I97" t="n">
         <v>1</v>
       </c>
-      <c r="G97" t="n">
+      <c r="J97" t="n">
         <v>1024</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1173.5</v>
-      </c>
-      <c r="I97" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>808.75</v>
       </c>
       <c r="K97" t="n">
         <v>597.625</v>
